--- a/modules/combined/doc/richards/tests/data/sinks.xlsx
+++ b/modules/combined/doc/richards/tests/data/sinks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="15300" windowHeight="11112" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="15300" windowHeight="11112" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="piecewise_linear_chart" sheetId="4" r:id="rId1"/>
@@ -13,8 +13,12 @@
     <sheet name="half_gaussian_chart" sheetId="6" r:id="rId4"/>
     <sheet name="half_gaussian_mass_bal" sheetId="7" r:id="rId5"/>
     <sheet name="half_gaussian" sheetId="2" r:id="rId6"/>
+    <sheet name="mob_and_relperm_chart" sheetId="9" r:id="rId7"/>
+    <sheet name="mob_and_relperm_mass_bal" sheetId="10" r:id="rId8"/>
+    <sheet name="mob_and_relperm" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="s01_" localSheetId="8">mob_and_relperm!$D$3:$K$104</definedName>
     <definedName name="s01_" localSheetId="2">piecewise_linear!$D$3:$J$104</definedName>
     <definedName name="s02_" localSheetId="5">half_gaussian!$D$3:$J$104</definedName>
   </definedNames>
@@ -37,7 +41,20 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="s02" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="2" name="s011" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="L:\moose\project2\trunk\elk\tests\richards\sinks\s03.csv" comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="s02" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="850" sourceFile="L:\moose\project2\trunk\elk\tests\richards\sinks\s02.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -54,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>time</t>
   </si>
@@ -90,6 +107,18 @@
   </si>
   <si>
     <t>expected</t>
+  </si>
+  <si>
+    <t>s0</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>relperm</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -1164,11 +1193,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="130264448"/>
-        <c:axId val="130274432"/>
+        <c:axId val="103093376"/>
+        <c:axId val="103095296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130264448"/>
+        <c:axId val="103093376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -1195,16 +1224,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130274432"/>
+        <c:crossAx val="103095296"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130274432"/>
+        <c:axId val="103095296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.4"/>
-          <c:min val="0.60000000000000009"/>
+          <c:min val="0.6000000000000002"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -1234,7 +1263,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130264448"/>
+        <c:crossAx val="103093376"/>
         <c:crossesAt val="-1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1906,11 +1935,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="51450624"/>
-        <c:axId val="51452160"/>
+        <c:axId val="145735040"/>
+        <c:axId val="147392000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51450624"/>
+        <c:axId val="145735040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,22 +1964,22 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51452160"/>
-        <c:crossesAt val="1.000000000000001E-17"/>
+        <c:crossAx val="147392000"/>
+        <c:crossesAt val="1.0000000000000021E-17"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51452160"/>
+        <c:axId val="147392000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000006E-11"/>
+          <c:max val="1.0000000000000012E-11"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51450624"/>
+        <c:crossAx val="145735040"/>
         <c:crossesAt val="-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3278,11 +3307,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="52742016"/>
-        <c:axId val="52743552"/>
+        <c:axId val="147441920"/>
+        <c:axId val="103743872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52742016"/>
+        <c:axId val="147441920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -3309,12 +3338,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52743552"/>
+        <c:crossAx val="103743872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52743552"/>
+        <c:axId val="103743872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,7 +3382,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52742016"/>
+        <c:crossAx val="147441920"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3392,7 +3421,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4025,11 +4053,2113 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="55716480"/>
-        <c:axId val="55727616"/>
+        <c:axId val="103797504"/>
+        <c:axId val="103799424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55716480"/>
+        <c:axId val="103797504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Porepressure (Pa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103799424"/>
+        <c:crossesAt val="1.000000000000003E-17"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="103799424"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000019E-11"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103797504"/>
+        <c:crossesAt val="-3"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-AU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Piecewise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> linear sink f</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>lux including mobility and relative permeability </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>expected</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mob_and_relperm!$I$4:$I$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9148421916597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8296843833194001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7445265749790999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6593687666388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5742109582985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4890531499582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4038953416179001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3187375332775</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2335797249372</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1484219165969001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0632641082565999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97854426789408999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89552096126293002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81416295577749997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.73443948902464995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65632026563815005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.57977545403462005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.50477568301803</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.43129203826686002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35929605867476</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.28875973262566001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21965549413293001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.15195621888915001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.5635220224093006E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0666244977489999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-4.2247936253099999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.10120995627241</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.15683066023570999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.20972104013406001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.26034666982804999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.30906380864279998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.35614628126017001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.40180545202912998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.44620513074092</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.48947277269265999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.53170795811395999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.57298885776163</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.61337719308837002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.65292205960879002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.69166288367270001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.72963171315254005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.76685499267861001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.80335493791447998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.83915059680228998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.87425866590468004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.90869411499976005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.94247066162744997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.97560112841849</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.0082262941269</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.0407328584686</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.0731172515689</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.1053758028389</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.1375048142935</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.1695006209618</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.2013596400493001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.2330784103406001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.2646536231748</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.2960821461818</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.3273610408365999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.3584875747656</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.3894592296282</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.4202737052987</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.4509289209770999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.4814230137824</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.5117543353013001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.541921446505</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.5719231113850001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.6017582896086</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.6314261284494</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.6609259542076</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.6902572633004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.7194197131724001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.7484131131492</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.7772374153366</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.8058927056451</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.8343791950057</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.8626972108276001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.8908471887364999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.9188296646212999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.9466452670109</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.9742947097920001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.0017787852775002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.0290983576257</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-2.0562543566098999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.0832477717337001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2.1100796466849001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2.1367510741182998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.1632631907573998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.1896171728040001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.2158142316415002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-2.2418556098214002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2.2677425773182001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.2934764280395998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2.3190584765801998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-2.3444900552041998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2.3697725110454</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-2.3949072035115999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-2.4198955018818999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-2.444738783085</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-2.4694384296482998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mob_and_relperm!$R$4:$R$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>14.778112197861301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.571735691913533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.463838900737004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.446382663942224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.511984079130686</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6538629298139611</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8657924865639028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1420543243954775</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4773968285257624</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.866997087421665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.3064258966117768</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.7916156193373842</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2926183091304875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7693079111381556</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3048272407697672</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8918711052873487</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5241185027297361</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1960905173692509</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.903030007639249</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6407995614696742</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4057947919677471</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1948705389333991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0052779468444721</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8346107254489892</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6807591761269742</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5418707969956018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4176946175226133</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.309779817092195</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.214712616923624</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1296770107265623</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0526155104849759</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98203714397268904</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.91686765832223005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.85633500970865495</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.79988289849469041</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7471061880342198</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.69770328280730731</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.65144158789304896</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.60813298760926449</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.56761691214527987</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.52974905960891849</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.49439424540952787</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.46142218483673103</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43070529151185027</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.40211780209940234</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.37553572200661561</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.35083723289878549</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.32790331585631471</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.30661842909572795</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.28797968295638848</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.27370436264434123</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.26008348827693167</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.24710137996870979</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.23474052229381354</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.22298190819056732</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.2118053649601056</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.20118985661319758</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.19111375899634478</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.18155510587209381</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.17249180548428039</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.16390182815865301</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.15576336622365464</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.1480549680353192</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.14075564820124409</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.13384497625963254</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.12730314611893453</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.12111102852800104</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.11525020875274194</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.10970301150095843</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.10445251497868965</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.9482555790470759E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.4777726221313766E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.0323365266444133E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.6105544610291684E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.2111050601765503E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.8327363130749408E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.4742632180850893E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.1345652717012653E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.8125838462771635E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.5073195030304898E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.2178292785970951E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.9432239764527488E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.6826654884646222E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.4353641666899148E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.2005762611169494E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.9776014353182331E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.7657803688432004E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.564492452563057E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.37315358099266E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.1912140438310298E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.0181565175092117E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.8534941563423325E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.6967687819617845E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.5475491689600964E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.4054294241148524E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.2700274561440132E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.1409835326325734E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.0179589205689684E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.900634606798156E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.7887100946427976E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.6819022729272599E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MOOSE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mob_and_relperm!$I$5:$I$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.9148421916597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8296843833194001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7445265749790999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6593687666388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5742109582985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4890531499582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4038953416179001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3187375332775</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2335797249372</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1484219165969001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0632641082565999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97854426789408999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89552096126293002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81416295577749997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.73443948902464995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65632026563815005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.57977545403462005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50477568301803</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.43129203826686002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35929605867476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28875973262566001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21965549413293001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15195621888915001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.5635220224093006E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0666244977489999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.2247936253099999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.10120995627241</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.15683066023570999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.20972104013406001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.26034666982804999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.30906380864279998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.35614628126017001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.40180545202912998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.44620513074092</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.48947277269265999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.53170795811395999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.57298885776163</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.61337719308837002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.65292205960879002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.69166288367270001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.72963171315254005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.76685499267861001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.80335493791447998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.83915059680228998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.87425866590468004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.90869411499976005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.94247066162744997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.97560112841849</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.0082262941269</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.0407328584686</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.0731172515689</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.1053758028389</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.1375048142935</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.1695006209618</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.2013596400493001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.2330784103406001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.2646536231748</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.2960821461818</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.3273610408365999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.3584875747656</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.3894592296282</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.4202737052987</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.4509289209770999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.4814230137824</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.5117543353013001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.541921446505</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.5719231113850001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.6017582896086</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.6314261284494</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.6609259542076</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.6902572633004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.7194197131724001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.7484131131492</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.7772374153366</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.8058927056451</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.8343791950057</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.8626972108276001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.8908471887364999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.9188296646212999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.9466452670109</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.9742947097920001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-2.0017787852775002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.0290983576257</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.0562543566098999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-2.0832477717337001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.1100796466849001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2.1367510741182998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2.1632631907573998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.1896171728040001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.2158142316415002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.2418556098214002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-2.2677425773182001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2.2934764280395998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.3190584765801998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2.3444900552041998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-2.3697725110454</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2.3949072035115999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-2.4198955018818999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-2.444738783085</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-2.4694384296482998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mob_and_relperm!$M$5:$M$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>13.571735691913499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.463838900737001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.446382663942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.511984079130499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6538629298134992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8657924865634996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1420543243949997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4773968285260004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8669970874219999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3064258966119997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7916156193374997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2926183091304999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7693079111381493</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.3048272407697503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.89187110528735</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5241185027297499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1960905173692495</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9030300076392499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6407995614696498</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4057947919677498</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1948705389334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0052779468445001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8346107254490001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.68075917612695</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5418707969956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4176946175226</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3097798170921999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2147126169236</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1296770107265499</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0526155104849999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98203714397269992</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.91686765832219996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.85633500970864995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.79988289849469996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.74710618803419993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.69770328280729998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.65144158789304996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.60813298760924994</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56761691214529997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.52974905960889995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.49439424540953003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.46142218483672498</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43070529151185</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.40211780209939996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.375535722006615</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.35083723289878499</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.32790331585631</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.30661842909573001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.28797968295637499</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.27370436264432996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.26008348827694</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.24710137996870499</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.23474052229380502</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.22298190819057498</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.21180536496012001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.201189856613195</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.19111375899634001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.18155510587209001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.17249180548427498</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.16390182815866</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.15576336622364997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.14805496803532001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.14075564820124498</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.13384497625964001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.12730314611893501</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.121111028528</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.11525020875274</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.10970301150096</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.10445251497869</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.9482555790469995E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.4777726221309991E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.0323365266444994E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.6105544610290005E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.2111050601765004E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.8327363130749991E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.4742632180855001E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.1345652717010002E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.8125838462769997E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.5073195030304995E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.217829278597E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.9432239764525004E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.6826654884645E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.4353641666900002E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.2005762611170001E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.9776014353180999E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.7657803688429999E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5644924525630994E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.3731535809925497E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.1912140438311499E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.0181565175093498E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.8534941563422999E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6967687819619004E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.5475491689601499E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.4054294241147996E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.2700274561438501E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.1409835326324999E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.01795892056895E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.9006346067982001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.78871009464275E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.6819022729271499E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="111858816"/>
+        <c:axId val="114331008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="111858816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>porepressure (Pa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114331008"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="114331008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Sink flux (kg/m^2/s)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111858816"/>
+        <c:crossesAt val="-1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-AU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Mass-balance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> error for piecewise-linear sink including mobility and relative permeability</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mob_and_relperm!$I$5:$I$900</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="896"/>
+                <c:pt idx="0">
+                  <c:v>1.9148421916597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8296843833194001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7445265749790999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6593687666388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5742109582985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4890531499582</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4038953416179001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3187375332775</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2335797249372</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1484219165969001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0632641082565999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97854426789408999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89552096126293002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81416295577749997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.73443948902464995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65632026563815005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.57977545403462005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50477568301803</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.43129203826686002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35929605867476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.28875973262566001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21965549413293001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15195621888915001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.5635220224093006E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0666244977489999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.2247936253099999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.10120995627241</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.15683066023570999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.20972104013406001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.26034666982804999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.30906380864279998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.35614628126017001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.40180545202912998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.44620513074092</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.48947277269265999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.53170795811395999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.57298885776163</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.61337719308837002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.65292205960879002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.69166288367270001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.72963171315254005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.76685499267861001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.80335493791447998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.83915059680228998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.87425866590468004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.90869411499976005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.94247066162744997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.97560112841849</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.0082262941269</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.0407328584686</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.0731172515689</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.1053758028389</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.1375048142935</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.1695006209618</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.2013596400493001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.2330784103406001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.2646536231748</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.2960821461818</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.3273610408365999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.3584875747656</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.3894592296282</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.4202737052987</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.4509289209770999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.4814230137824</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.5117543353013001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.541921446505</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.5719231113850001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.6017582896086</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.6314261284494</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-1.6609259542076</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-1.6902572633004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-1.7194197131724001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-1.7484131131492</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-1.7772374153366</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.8058927056451</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-1.8343791950057</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-1.8626972108276001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1.8908471887364999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1.9188296646212999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.9466452670109</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.9742947097920001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-2.0017787852775002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-2.0290983576257</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-2.0562543566098999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-2.0832477717337001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.1100796466849001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2.1367510741182998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-2.1632631907573998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-2.1896171728040001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.2158142316415002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.2418556098214002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-2.2677425773182001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2.2934764280395998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.3190584765801998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2.3444900552041998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-2.3697725110454</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2.3949072035115999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-2.4198955018818999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-2.444738783085</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-2.4694384296482998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mob_and_relperm!$F$5:$F$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>4.3512795668907997E-17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>5.159220859311E-17</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>3.6265059069016001E-17</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>3.9488619875151E-17</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>8.5997438839217996E-17</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>4.6820827812462998E-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>3.0180439465405E-17</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>6.5533800658549005E-17</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>3.5516326765486999E-17</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>3.8434115150075002E-17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>4.4795579654478002E-17</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>1.8268595577109E-12</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>1.5536177668617001E-12</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>1.3208063958079E-12</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>1.1227114091728001E-12</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>9.5397824251315994E-13</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>8.1039497828535004E-13</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>6.8827725140460004E-13</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00E+00">
+                  <c:v>1.8702393620302999E-15</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00E+00">
+                  <c:v>1.6602413896708999E-16</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00E+00">
+                  <c:v>4.8591699341411995E-16</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00E+00">
+                  <c:v>1.456345162445E-15</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00E+00">
+                  <c:v>3.3452903898169999E-15</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>6.5764144788527997E-15</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00E+00">
+                  <c:v>1.1260871208321E-14</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00E+00">
+                  <c:v>1.7534496362098001E-14</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00E+00">
+                  <c:v>2.5025835526191E-14</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00E+00">
+                  <c:v>3.3407399695879001E-14</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="0.00E+00">
+                  <c:v>4.2179283794052001E-14</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="0.00E+00">
+                  <c:v>5.0597436422872998E-14</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00E+00">
+                  <c:v>5.8183017332080998E-14</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00E+00">
+                  <c:v>6.4492031780231996E-14</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="0.00E+00">
+                  <c:v>6.9053846448262001E-14</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00E+00">
+                  <c:v>7.1894710635098E-14</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="0.00E+00">
+                  <c:v>7.2895684075347997E-14</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00E+00">
+                  <c:v>7.2425210692345999E-14</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00E+00">
+                  <c:v>7.0314204478405005E-14</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="0.00E+00">
+                  <c:v>6.7228000518980004E-14</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00E+00">
+                  <c:v>6.3181711255872995E-14</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00E+00">
+                  <c:v>5.8656196159286999E-14</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00E+00">
+                  <c:v>5.3807211876354999E-14</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00E+00">
+                  <c:v>8.5056710221111002E-14</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00E+00">
+                  <c:v>4.4511224629320002E-14</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00E+00">
+                  <c:v>4.4963772692274001E-14</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00E+00">
+                  <c:v>4.4987276365184997E-14</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00E+00">
+                  <c:v>4.4860320545671998E-14</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00E+00">
+                  <c:v>4.4347144386134001E-14</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.00E+00">
+                  <c:v>4.3492962983571999E-14</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00E+00">
+                  <c:v>4.2453006097347001E-14</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00E+00">
+                  <c:v>4.1213702413290998E-14</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00E+00">
+                  <c:v>3.9918999172626999E-14</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00E+00">
+                  <c:v>3.8575670862230001E-14</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00E+00">
+                  <c:v>3.6875435947010002E-14</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="0.00E+00">
+                  <c:v>3.5325599607377998E-14</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00E+00">
+                  <c:v>3.3586591758025002E-14</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00E+00">
+                  <c:v>3.2041227402174998E-14</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00E+00">
+                  <c:v>3.0355511131624001E-14</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="0.00E+00">
+                  <c:v>2.8774788174641999E-14</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00E+00">
+                  <c:v>2.7067832536731999E-14</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00E+00">
+                  <c:v>2.5541690706336001E-14</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="0.00E+00">
+                  <c:v>2.4072286832229001E-14</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00E+00">
+                  <c:v>2.2679419387396999E-14</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00E+00">
+                  <c:v>2.1166337946853001E-14</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="0.00E+00">
+                  <c:v>1.9938346225872999E-14</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00E+00">
+                  <c:v>1.8569052611741999E-14</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00E+00">
+                  <c:v>1.7395054774822E-14</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00E+00">
+                  <c:v>1.6296421772868001E-14</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="0.00E+00">
+                  <c:v>1.5290716588703001E-14</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00E+00">
+                  <c:v>1.4231305206211E-14</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00E+00">
+                  <c:v>1.3262421955412E-14</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00E+00">
+                  <c:v>1.2431496723449E-14</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00E+00">
+                  <c:v>1.1637337745948E-14</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00E+00">
+                  <c:v>1.0825686735434001E-14</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00E+00">
+                  <c:v>9.9998742302311999E-15</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00E+00">
+                  <c:v>9.3702375206415003E-15</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="0.00E+00">
+                  <c:v>8.7848915506383995E-15</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.00E+00">
+                  <c:v>8.2156405994224996E-15</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.00E+00">
+                  <c:v>7.6678711469872001E-15</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.00E+00">
+                  <c:v>7.0679262358380002E-15</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.00E+00">
+                  <c:v>6.6190792914667997E-15</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="0.00E+00">
+                  <c:v>6.1278493363284998E-15</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="0.00E+00">
+                  <c:v>5.7685493866911998E-15</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0.00E+00">
+                  <c:v>5.4664304694686003E-15</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="0.00E+00">
+                  <c:v>4.9467316226998996E-15</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="0.00E+00">
+                  <c:v>4.6274314807034999E-15</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="0.00E+00">
+                  <c:v>4.3803168008408002E-15</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="0.00E+00">
+                  <c:v>4.1102423077385999E-15</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="0.00E+00">
+                  <c:v>3.8162654536249997E-15</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="0.00E+00">
+                  <c:v>3.6639666428089996E-15</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="0.00E+00">
+                  <c:v>3.3246963351390999E-15</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="0.00E+00">
+                  <c:v>3.2249840561057E-15</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="0.00E+00">
+                  <c:v>2.9313766690453999E-15</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="0.00E+00">
+                  <c:v>2.7095175405328002E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="133426176"/>
+        <c:axId val="137204864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="133426176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4054,22 +6184,22 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55727616"/>
-        <c:crossesAt val="1.0000000000000021E-17"/>
+        <c:crossAx val="137204864"/>
+        <c:crossesAt val="1.000000000000003E-17"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55727616"/>
+        <c:axId val="137204864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000012E-11"/>
+          <c:max val="1.0000000000000019E-11"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55716480"/>
+        <c:crossAx val="133426176"/>
         <c:crossesAt val="-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4083,7 +6213,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -4095,7 +6225,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -4107,7 +6237,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="85" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -4120,6 +6250,30 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -4235,12 +6389,70 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9271000" cy="6039556"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9271000" cy="6039556"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="s01" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="s02" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="s02" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="s01" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11533,4 +13745,5312 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D3:R204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M5" activeCellId="1" sqref="I5:I41 M5:M41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:18">
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="4:18">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.66501504890375995</v>
+      </c>
+      <c r="H4">
+        <v>0.66501504890375995</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f>EXP(I4)</f>
+        <v>7.3890560989306504</v>
+      </c>
+      <c r="P4">
+        <f>3*K4^2-2*K4^3</f>
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <f>IF(I4&lt;-1,100,IF(I4&gt;1,200,150+(200-100)*I4/2))</f>
+        <v>200</v>
+      </c>
+      <c r="R4">
+        <f>O4*0.01*P4*Q4</f>
+        <v>14.778112197861301</v>
+      </c>
+    </row>
+    <row r="5" spans="4:18">
+      <c r="D5">
+        <v>2E-3</v>
+      </c>
+      <c r="E5">
+        <v>2.7143471383827E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.3512795668907997E-17</v>
+      </c>
+      <c r="G5">
+        <v>0.61072810613609996</v>
+      </c>
+      <c r="H5">
+        <v>0.66501504890375995</v>
+      </c>
+      <c r="I5">
+        <v>1.9148421916597</v>
+      </c>
+      <c r="J5">
+        <v>2.7143471383827E-2</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>J5/($D$5-$D$4)</f>
+        <v>13.571735691913499</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O68" si="0">EXP(I5)</f>
+        <v>6.7858678459567665</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P68" si="1">3*K5^2-2*K5^3</f>
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q68" si="2">IF(I5&lt;-1,100,IF(I5&gt;1,200,150+(200-100)*I5/2))</f>
+        <v>200</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R68" si="3">O5*0.01*P5*Q5</f>
+        <v>13.571735691913533</v>
+      </c>
+    </row>
+    <row r="6" spans="4:18">
+      <c r="D6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E6">
+        <v>2.4927677801474001E-2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.56087275053315999</v>
+      </c>
+      <c r="H6">
+        <v>0.61072810613609996</v>
+      </c>
+      <c r="I6">
+        <v>1.8296843833194001</v>
+      </c>
+      <c r="J6">
+        <v>2.4927677801474001E-2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M69" si="4">J6/($D$5-$D$4)</f>
+        <v>12.463838900737001</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>6.231919450368502</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>12.463838900737004</v>
+      </c>
+    </row>
+    <row r="7" spans="4:18">
+      <c r="D7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E7">
+        <v>2.2892765327884E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.159220859311E-17</v>
+      </c>
+      <c r="G7">
+        <v>0.51508721987739003</v>
+      </c>
+      <c r="H7">
+        <v>0.56087275053315999</v>
+      </c>
+      <c r="I7">
+        <v>1.7445265749790999</v>
+      </c>
+      <c r="J7">
+        <v>2.2892765327884E-2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>11.446382663942</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>5.723191331971111</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>11.446382663942224</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18">
+      <c r="D8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E8">
+        <v>2.1023968158260999E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.47303928356086999</v>
+      </c>
+      <c r="H8">
+        <v>0.51508721987739003</v>
+      </c>
+      <c r="I8">
+        <v>1.6593687666388</v>
+      </c>
+      <c r="J8">
+        <v>2.1023968158260999E-2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>10.511984079130499</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>5.255992039565343</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>10.511984079130686</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18">
+      <c r="D9">
+        <v>0.01</v>
+      </c>
+      <c r="E9">
+        <v>1.9307725859626999E-2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.43442383184160999</v>
+      </c>
+      <c r="H9">
+        <v>0.47303928356086999</v>
+      </c>
+      <c r="I9">
+        <v>1.5742109582985</v>
+      </c>
+      <c r="J9">
+        <v>1.9307725859626999E-2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>9.6538629298134992</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>4.8269314649069806</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>9.6538629298139611</v>
+      </c>
+    </row>
+    <row r="10" spans="4:18">
+      <c r="D10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.7731584973127001E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.39896066189536</v>
+      </c>
+      <c r="H10">
+        <v>0.43442383184160999</v>
+      </c>
+      <c r="I10">
+        <v>1.4890531499582</v>
+      </c>
+      <c r="J10">
+        <v>1.7731584973127001E-2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>8.8657924865634996</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>4.4328962432819514</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>8.8657924865639028</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18">
+      <c r="D11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.6284108648789999E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.6265059069016001E-17</v>
+      </c>
+      <c r="G11">
+        <v>0.36639244459777998</v>
+      </c>
+      <c r="H11">
+        <v>0.39896066189536</v>
+      </c>
+      <c r="I11">
+        <v>1.4038953416179001</v>
+      </c>
+      <c r="J11">
+        <v>1.6284108648789999E-2</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>8.1420543243949997</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>4.0710271621977387</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>8.1420543243954775</v>
+      </c>
+    </row>
+    <row r="12" spans="4:18">
+      <c r="D12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.4954793657052001E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.9488619875151E-17</v>
+      </c>
+      <c r="G12">
+        <v>0.33648285728367</v>
+      </c>
+      <c r="H12">
+        <v>0.36639244459777998</v>
+      </c>
+      <c r="I12">
+        <v>1.3187375332775</v>
+      </c>
+      <c r="J12">
+        <v>1.4954793657052001E-2</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>7.4773968285260004</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>3.7386984142628807</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>7.4773968285257624</v>
+      </c>
+    </row>
+    <row r="13" spans="4:18">
+      <c r="D13">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.3733994174844E-2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8.5997438839217996E-17</v>
+      </c>
+      <c r="G13">
+        <v>0.30901486893398999</v>
+      </c>
+      <c r="H13">
+        <v>0.33648285728367</v>
+      </c>
+      <c r="I13">
+        <v>1.2335797249372</v>
+      </c>
+      <c r="J13">
+        <v>1.3733994174844E-2</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>6.8669970874219999</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>3.4334985437108325</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>6.866997087421665</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18">
+      <c r="D14">
+        <v>0.02</v>
+      </c>
+      <c r="E14">
+        <v>1.2612851793224E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4.6820827812462998E-17</v>
+      </c>
+      <c r="G14">
+        <v>0.28378916534754001</v>
+      </c>
+      <c r="H14">
+        <v>0.30901486893398999</v>
+      </c>
+      <c r="I14">
+        <v>1.1484219165969001</v>
+      </c>
+      <c r="J14">
+        <v>1.2612851793224E-2</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>6.3064258966119997</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>3.1532129483058884</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>6.3064258966117768</v>
+      </c>
+    </row>
+    <row r="15" spans="4:18">
+      <c r="D15">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.1583231238674999E-2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.26062270287019002</v>
+      </c>
+      <c r="H15">
+        <v>0.28378916534754001</v>
+      </c>
+      <c r="I15">
+        <v>1.0632641082565999</v>
+      </c>
+      <c r="J15">
+        <v>1.1583231238674999E-2</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="4"/>
+        <v>5.7916156193374997</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>2.8958078096686921</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>5.7916156193373842</v>
+      </c>
+    </row>
+    <row r="16" spans="4:18">
+      <c r="D16">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.0585236618260999E-2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.23945222963366999</v>
+      </c>
+      <c r="H16">
+        <v>0.26062270287019002</v>
+      </c>
+      <c r="I16">
+        <v>0.97854426789408999</v>
+      </c>
+      <c r="J16">
+        <v>1.0585236618260999E-2</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="4"/>
+        <v>5.2926183091304999</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>2.6605803292629742</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>198.92721339470449</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>5.2926183091304875</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18">
+      <c r="D17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>9.5386158222762994E-3</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3.0180439465405E-17</v>
+      </c>
+      <c r="G17">
+        <v>0.22037499798911001</v>
+      </c>
+      <c r="H17">
+        <v>0.23945222963366999</v>
+      </c>
+      <c r="I17">
+        <v>0.89552096126293002</v>
+      </c>
+      <c r="J17">
+        <v>9.5386158222762994E-3</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="4"/>
+        <v>4.7693079111381493</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>2.4486110887679287</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>194.7760480631465</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>4.7693079111381556</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18">
+      <c r="D18">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E18">
+        <v>8.6096544815395006E-3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6.5533800658549005E-17</v>
+      </c>
+      <c r="G18">
+        <v>0.20315568902604</v>
+      </c>
+      <c r="H18">
+        <v>0.22037499798911001</v>
+      </c>
+      <c r="I18">
+        <v>0.81416295577749997</v>
+      </c>
+      <c r="J18">
+        <v>8.6096544815395006E-3</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="4"/>
+        <v>4.3048272407697503</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>2.2572854336226165</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>190.70814778887501</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>4.3048272407697672</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18">
+      <c r="D19">
+        <v>0.03</v>
+      </c>
+      <c r="E19">
+        <v>7.7837422105746998E-3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3.5516326765486999E-17</v>
+      </c>
+      <c r="G19">
+        <v>0.18758820460489001</v>
+      </c>
+      <c r="H19">
+        <v>0.20315568902604</v>
+      </c>
+      <c r="I19">
+        <v>0.73443948902464995</v>
+      </c>
+      <c r="J19">
+        <v>7.7837422105746998E-3</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="4"/>
+        <v>3.89187110528735</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>2.0843133844987358</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>186.72197445123248</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>3.8918711052873487</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18">
+      <c r="D20">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>7.0482370054594998E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.8434115150075002E-17</v>
+      </c>
+      <c r="G20">
+        <v>0.17349173059396999</v>
+      </c>
+      <c r="H20">
+        <v>0.18758820460489001</v>
+      </c>
+      <c r="I20">
+        <v>0.65632026563815005</v>
+      </c>
+      <c r="J20">
+        <v>7.0482370054594998E-3</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>3.5241185027297499</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>1.9276858954885123</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>182.81601328190749</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>3.5241185027297361</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18">
+      <c r="D21">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E21">
+        <v>6.3921810347384997E-3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.16070736852449</v>
+      </c>
+      <c r="H21">
+        <v>0.17349173059396999</v>
+      </c>
+      <c r="I21">
+        <v>0.57977545403462005</v>
+      </c>
+      <c r="J21">
+        <v>6.3921810347384997E-3</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="4"/>
+        <v>3.1960905173692495</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>1.785637428049889</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>178.98877270173099</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>3.1960905173692509</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18">
+      <c r="D22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E22">
+        <v>5.8060600152784999E-3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4.4795579654478002E-17</v>
+      </c>
+      <c r="G22">
+        <v>0.14909524849392999</v>
+      </c>
+      <c r="H22">
+        <v>0.16070736852449</v>
+      </c>
+      <c r="I22">
+        <v>0.50477568301803</v>
+      </c>
+      <c r="J22">
+        <v>5.8060600152784999E-3</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="4"/>
+        <v>2.9030300076392499</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>1.6566138721548045</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>175.23878415090149</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>2.903030007639249</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18">
+      <c r="D23">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>5.2815991229392999E-3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.8268595577109E-12</v>
+      </c>
+      <c r="G23">
+        <v>0.13853205024911</v>
+      </c>
+      <c r="H23">
+        <v>0.14909524849392999</v>
+      </c>
+      <c r="I23">
+        <v>0.43129203826686002</v>
+      </c>
+      <c r="J23">
+        <v>5.2815991229392999E-3</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="4"/>
+        <v>2.6407995614696498</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>1.5392450027678422</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>171.56460191334301</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>2.6407995614696742</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18">
+      <c r="D24">
+        <v>0.04</v>
+      </c>
+      <c r="E24">
+        <v>4.8115895839354996E-3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.5536177668617001E-12</v>
+      </c>
+      <c r="G24">
+        <v>0.12890887108207</v>
+      </c>
+      <c r="H24">
+        <v>0.13853205024911</v>
+      </c>
+      <c r="I24">
+        <v>0.35929605867476</v>
+      </c>
+      <c r="J24">
+        <v>4.8115895839354996E-3</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>2.4057947919677498</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>1.4323207898007249</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>167.96480293373799</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>2.4057947919677471</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18">
+      <c r="D25">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E25">
+        <v>4.3897410778667998E-3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.3208063958079E-12</v>
+      </c>
+      <c r="G25">
+        <v>0.12012938892699</v>
+      </c>
+      <c r="H25">
+        <v>0.12890887108207</v>
+      </c>
+      <c r="I25">
+        <v>0.28875973262566001</v>
+      </c>
+      <c r="J25">
+        <v>4.3897410778667998E-3</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>2.1948705389334</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>1.3347709880776677</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>164.437986631283</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>2.1948705389333991</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18">
+      <c r="D26">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E26">
+        <v>4.0105558936890003E-3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1.1227114091728001E-12</v>
+      </c>
+      <c r="G26">
+        <v>0.11210827714013</v>
+      </c>
+      <c r="H26">
+        <v>0.12012938892699</v>
+      </c>
+      <c r="I26">
+        <v>0.21965549413293001</v>
+      </c>
+      <c r="J26">
+        <v>4.0105558936890003E-3</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="4"/>
+        <v>2.0052779468445001</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>1.2456475237792508</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>160.9827747066465</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>2.0052779468444721</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18">
+      <c r="D27">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E27">
+        <v>3.6692214508980002E-3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>9.5397824251315994E-13</v>
+      </c>
+      <c r="G27">
+        <v>0.10476983423875</v>
+      </c>
+      <c r="H27">
+        <v>0.11210827714013</v>
+      </c>
+      <c r="I27">
+        <v>0.15195621888915001</v>
+      </c>
+      <c r="J27">
+        <v>3.6692214508980002E-3</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="4"/>
+        <v>1.8346107254490001</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>1.1641092693194606</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>157.59781094445751</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>1.8346107254489892</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18">
+      <c r="D28">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E28">
+        <v>3.3615183522539001E-3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>8.1039497828535004E-13</v>
+      </c>
+      <c r="G28">
+        <v>9.8046797534572003E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.10476983423875</v>
+      </c>
+      <c r="I28">
+        <v>8.5635220224093006E-2</v>
+      </c>
+      <c r="J28">
+        <v>3.3615183522539001E-3</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>1.68075917612695</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>1.0894088614952417</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>154.28176101120465</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>1.6807591761269742</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18">
+      <c r="D29">
+        <v>0.05</v>
+      </c>
+      <c r="E29">
+        <v>3.0837415939912001E-3</v>
+      </c>
+      <c r="F29" s="1">
+        <v>6.8827725140460004E-13</v>
+      </c>
+      <c r="G29">
+        <v>9.1879314346850996E-2</v>
+      </c>
+      <c r="H29">
+        <v>9.8046797534572003E-2</v>
+      </c>
+      <c r="I29">
+        <v>2.0666244977489999E-2</v>
+      </c>
+      <c r="J29">
+        <v>3.0837415939912001E-3</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>1.5418707969956</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>1.0208812705205648</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>151.03331224887449</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>1.5418707969956018</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18">
+      <c r="D30">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E30">
+        <v>2.8353892350452001E-3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1.8702393620302999E-15</v>
+      </c>
+      <c r="G30">
+        <v>8.6208535876761E-2</v>
+      </c>
+      <c r="H30">
+        <v>9.1879314346850996E-2</v>
+      </c>
+      <c r="I30">
+        <v>-4.2247936253099999E-2</v>
+      </c>
+      <c r="J30">
+        <v>2.8353892350452001E-3</v>
+      </c>
+      <c r="K30">
+        <v>0.99910874885155998</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>1.4176946175226</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>0.95863207146144946</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0.99999761843006385</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>147.88760318734501</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>1.4176946175226133</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18">
+      <c r="D31">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E31">
+        <v>2.6195596341843999E-3</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1.6602413896708999E-16</v>
+      </c>
+      <c r="G31">
+        <v>8.0969416608392006E-2</v>
+      </c>
+      <c r="H31">
+        <v>8.6208535876761E-2</v>
+      </c>
+      <c r="I31">
+        <v>-0.10120995627241</v>
+      </c>
+      <c r="J31">
+        <v>2.6195596341843999E-3</v>
+      </c>
+      <c r="K31">
+        <v>0.99491728761539999</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>1.3097798170921999</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>0.90374326639780045</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0.99992276071767594</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>144.93950218637951</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>1.309779817092195</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18">
+      <c r="D32">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E32">
+        <v>2.4294252338472001E-3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>4.8591699341411995E-16</v>
+      </c>
+      <c r="G32">
+        <v>7.6110566140697999E-2</v>
+      </c>
+      <c r="H32">
+        <v>8.0969416608392006E-2</v>
+      </c>
+      <c r="I32">
+        <v>-0.15683066023570999</v>
+      </c>
+      <c r="J32">
+        <v>2.4294252338472001E-3</v>
+      </c>
+      <c r="K32">
+        <v>0.98792437864172</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>1.2147126169236</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>0.8548488064569626</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0.99956605985589109</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>142.15846698821451</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>1.214712616923624</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18">
+      <c r="D33">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E33">
+        <v>2.2593540214531E-3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.456345162445E-15</v>
+      </c>
+      <c r="G33">
+        <v>7.1591858097792005E-2</v>
+      </c>
+      <c r="H33">
+        <v>7.6110566140697999E-2</v>
+      </c>
+      <c r="I33">
+        <v>-0.20972104013406001</v>
+      </c>
+      <c r="J33">
+        <v>2.2593540214531E-3</v>
+      </c>
+      <c r="K33">
+        <v>0.97870837429613</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="4"/>
+        <v>1.1296770107265499</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>0.81081039798497734</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="1"/>
+        <v>0.99865930443161388</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>139.51394799329699</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="3"/>
+        <v>1.1296770107265623</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18">
+      <c r="D34">
+        <v>0.06</v>
+      </c>
+      <c r="E34">
+        <v>2.10523102097E-3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3.3452903898169999E-15</v>
+      </c>
+      <c r="G34">
+        <v>6.7381396055852999E-2</v>
+      </c>
+      <c r="H34">
+        <v>7.1591858097792005E-2</v>
+      </c>
+      <c r="I34">
+        <v>-0.26034666982804999</v>
+      </c>
+      <c r="J34">
+        <v>2.10523102097E-3</v>
+      </c>
+      <c r="K34">
+        <v>0.96774075242329005</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>1.0526155104849999</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>0.77078433181002259</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>0.99694516459349924</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="2"/>
+        <v>136.9826665085975</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="3"/>
+        <v>1.0526155104849759</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18">
+      <c r="D35">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E35">
+        <v>1.9640742879453998E-3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>6.5764144788527997E-15</v>
+      </c>
+      <c r="G35">
+        <v>6.3453247479964003E-2</v>
+      </c>
+      <c r="H35">
+        <v>6.7381396055852999E-2</v>
+      </c>
+      <c r="I35">
+        <v>-0.30906380864279998</v>
+      </c>
+      <c r="J35">
+        <v>1.9640742879453998E-3</v>
+      </c>
+      <c r="K35">
+        <v>0.95540994577663996</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>0.98203714397269992</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>0.73413392444235059</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>0.99421249558909564</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="2"/>
+        <v>134.54680956786001</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="3"/>
+        <v>0.98203714397268904</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18">
+      <c r="D36">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E36">
+        <v>1.8337353166443999E-3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.1260871208321E-14</v>
+      </c>
+      <c r="G36">
+        <v>5.9785776846677997E-2</v>
+      </c>
+      <c r="H36">
+        <v>6.3453247479964003E-2</v>
+      </c>
+      <c r="I36">
+        <v>-0.35614628126017001</v>
+      </c>
+      <c r="J36">
+        <v>1.8337353166443999E-3</v>
+      </c>
+      <c r="K36">
+        <v>0.94203890519410005</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>0.91686765832219996</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>0.70037016171171351</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="1"/>
+        <v>0.99031097373088683</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>132.1926859369915</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="3"/>
+        <v>0.91686765832223005</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18">
+      <c r="D37">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E37">
+        <v>1.7126700194172999E-3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1.7534496362098001E-14</v>
+      </c>
+      <c r="G37">
+        <v>5.6360436807846997E-2</v>
+      </c>
+      <c r="H37">
+        <v>5.9785776846677997E-2</v>
+      </c>
+      <c r="I37">
+        <v>-0.40180545202912998</v>
+      </c>
+      <c r="J37">
+        <v>1.7126700194172999E-3</v>
+      </c>
+      <c r="K37">
+        <v>0.92789788661259998</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>0.85633500970864995</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>0.6691109071978899</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="1"/>
+        <v>0.98515353237666892</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="2"/>
+        <v>129.90972739854351</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="3"/>
+        <v>0.85633500970865495</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18">
+      <c r="D38">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E38">
+        <v>1.5997657969894E-3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2.5025835526191E-14</v>
+      </c>
+      <c r="G38">
+        <v>5.3160905213874003E-2</v>
+      </c>
+      <c r="H38">
+        <v>5.6360436807846997E-2</v>
+      </c>
+      <c r="I38">
+        <v>-0.44620513074092</v>
+      </c>
+      <c r="J38">
+        <v>1.5997657969894E-3</v>
+      </c>
+      <c r="K38">
+        <v>0.91321382212366997</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>0.79988289849469996</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>0.64005246415826333</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="1"/>
+        <v>0.97871179731716595</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="2"/>
+        <v>127.689743462954</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="3"/>
+        <v>0.79988289849469041</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18">
+      <c r="D39">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E39">
+        <v>1.4942123760683999E-3</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3.3407399695879001E-14</v>
+      </c>
+      <c r="G39">
+        <v>5.0172480461744003E-2</v>
+      </c>
+      <c r="H39">
+        <v>5.3160905213874003E-2</v>
+      </c>
+      <c r="I39">
+        <v>-0.48947277269265999</v>
+      </c>
+      <c r="J39">
+        <v>1.4942123760683999E-3</v>
+      </c>
+      <c r="K39">
+        <v>0.89817733140377998</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="4"/>
+        <v>0.74710618803419993</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>0.61294947270905387</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="1"/>
+        <v>0.97100779797834358</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="2"/>
+        <v>125.52636136536699</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="3"/>
+        <v>0.7471061880342198</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18">
+      <c r="D40">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E40">
+        <v>1.3954065656145999E-3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>4.2179283794052001E-14</v>
+      </c>
+      <c r="G40">
+        <v>4.7381667330523E-2</v>
+      </c>
+      <c r="H40">
+        <v>5.0172480461744003E-2</v>
+      </c>
+      <c r="I40">
+        <v>-0.53170795811395999</v>
+      </c>
+      <c r="J40">
+        <v>1.3954065656145999E-3</v>
+      </c>
+      <c r="K40">
+        <v>0.88294813217465995</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>0.69770328280729998</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="0"/>
+        <v>0.58760051507184985</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="1"/>
+        <v>0.96210406871661336</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="2"/>
+        <v>123.414602094302</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="3"/>
+        <v>0.69770328280730731</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18">
+      <c r="D41">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E41">
+        <v>1.3028831757861E-3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5.0597436422872998E-14</v>
+      </c>
+      <c r="G41">
+        <v>4.4775900978959997E-2</v>
+      </c>
+      <c r="H41">
+        <v>4.7381667330523E-2</v>
+      </c>
+      <c r="I41">
+        <v>-0.57298885776163</v>
+      </c>
+      <c r="J41">
+        <v>1.3028831757861E-3</v>
+      </c>
+      <c r="K41">
+        <v>0.86765936821593004</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>0.65144158789304996</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>0.56383768708386717</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="1"/>
+        <v>0.9520935105210302</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="2"/>
+        <v>121.3505571119185</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="3"/>
+        <v>0.65144158789304896</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18">
+      <c r="D42">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E42">
+        <v>1.2162659752184999E-3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5.8183017332080998E-14</v>
+      </c>
+      <c r="G42">
+        <v>4.2343369028533001E-2</v>
+      </c>
+      <c r="H42">
+        <v>4.4775900978959997E-2</v>
+      </c>
+      <c r="I42">
+        <v>-0.61337719308837002</v>
+      </c>
+      <c r="J42">
+        <v>1.2162659752184999E-3</v>
+      </c>
+      <c r="K42">
+        <v>0.85242119605003996</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="4"/>
+        <v>0.60813298760924994</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="0"/>
+        <v>0.54151896336569028</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="1"/>
+        <v>0.94108987599159977</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="2"/>
+        <v>119.3311403455815</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="3"/>
+        <v>0.60813298760926449</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18">
+      <c r="D43">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E43">
+        <v>1.1352338242906E-3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>6.4492031780231996E-14</v>
+      </c>
+      <c r="G43">
+        <v>4.0072901379963E-2</v>
+      </c>
+      <c r="H43">
+        <v>4.2343369028533001E-2</v>
+      </c>
+      <c r="I43">
+        <v>-0.65292205960879002</v>
+      </c>
+      <c r="J43">
+        <v>1.1352338242906E-3</v>
+      </c>
+      <c r="K43">
+        <v>0.83732384740483001</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="4"/>
+        <v>0.56761691214529997</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="0"/>
+        <v>0.52052255443984063</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="1"/>
+        <v>0.92921937882222161</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="2"/>
+        <v>117.35389701956049</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="3"/>
+        <v>0.56761691214527987</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18">
+      <c r="D44">
+        <v>0.08</v>
+      </c>
+      <c r="E44">
+        <v>1.0594981192178E-3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>6.9053846448262001E-14</v>
+      </c>
+      <c r="G44">
+        <v>3.7953905141538E-2</v>
+      </c>
+      <c r="H44">
+        <v>4.0072901379963E-2</v>
+      </c>
+      <c r="I44">
+        <v>-0.69166288367270001</v>
+      </c>
+      <c r="J44">
+        <v>1.0594981192178E-3</v>
+      </c>
+      <c r="K44">
+        <v>0.82244030166076998</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="4"/>
+        <v>0.52974905960889995</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>0.50074269950054529</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="1"/>
+        <v>0.91661366834781721</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="2"/>
+        <v>115.416855816365</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="3"/>
+        <v>0.52974905960891849</v>
+      </c>
+    </row>
+    <row r="45" spans="4:18">
+      <c r="D45">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E45">
+        <v>9.8878849081904989E-4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>7.1894710635098E-14</v>
+      </c>
+      <c r="G45">
+        <v>3.5976328159911003E-2</v>
+      </c>
+      <c r="H45">
+        <v>3.7953905141538E-2</v>
+      </c>
+      <c r="I45">
+        <v>-0.72963171315254005</v>
+      </c>
+      <c r="J45">
+        <v>9.8878849081906008E-4</v>
+      </c>
+      <c r="K45">
+        <v>0.80782864945689004</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="4"/>
+        <v>0.49439424540953003</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>0.48208650351884946</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="1"/>
+        <v>0.90340422592378267</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="2"/>
+        <v>113.51841434237301</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="3"/>
+        <v>0.49439424540952787</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18">
+      <c r="D46">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E46">
+        <v>9.2284436967344998E-4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>7.2895684075347997E-14</v>
+      </c>
+      <c r="G46">
+        <v>3.4130639420573997E-2</v>
+      </c>
+      <c r="H46">
+        <v>3.5976328159911003E-2</v>
+      </c>
+      <c r="I46">
+        <v>-0.76685499267861001</v>
+      </c>
+      <c r="J46">
+        <v>9.2284436967344998E-4</v>
+      </c>
+      <c r="K46">
+        <v>0.79353419632636002</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="4"/>
+        <v>0.46142218483672498</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="0"/>
+        <v>0.46447154005096208</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="1"/>
+        <v>0.88971811718920024</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="2"/>
+        <v>111.65725036606949</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="3"/>
+        <v>0.46142218483673103</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18">
+      <c r="D47">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E47">
+        <v>8.6141058302370002E-4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>7.2425210692345999E-14</v>
+      </c>
+      <c r="G47">
+        <v>3.2407818254536001E-2</v>
+      </c>
+      <c r="H47">
+        <v>3.4130639420573997E-2</v>
+      </c>
+      <c r="I47">
+        <v>-0.80335493791447998</v>
+      </c>
+      <c r="J47">
+        <v>8.6141058302370002E-4</v>
+      </c>
+      <c r="K47">
+        <v>0.77959133670578995</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="4"/>
+        <v>0.43070529151185</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>0.44782401924931786</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="1"/>
+        <v>0.87567495983922361</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="2"/>
+        <v>109.83225310427599</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="3"/>
+        <v>0.43070529151185027</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18">
+      <c r="D48">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E48">
+        <v>8.0423560419879997E-4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>7.0314204478405005E-14</v>
+      </c>
+      <c r="G48">
+        <v>3.0799347046147001E-2</v>
+      </c>
+      <c r="H48">
+        <v>3.2407818254536001E-2</v>
+      </c>
+      <c r="I48">
+        <v>-0.83915059680228998</v>
+      </c>
+      <c r="J48">
+        <v>8.0423560419879997E-4</v>
+      </c>
+      <c r="K48">
+        <v>0.76602521885927</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="4"/>
+        <v>0.40211780209939996</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="0"/>
+        <v>0.43207737550877368</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="1"/>
+        <v>0.86138492896019259</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="2"/>
+        <v>108.04247015988551</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="3"/>
+        <v>0.40211780209940234</v>
+      </c>
+    </row>
+    <row r="49" spans="4:18">
+      <c r="D49">
+        <v>0.09</v>
+      </c>
+      <c r="E49">
+        <v>7.5107144401323001E-4</v>
+      </c>
+      <c r="F49" s="1">
+        <v>6.7228000518980004E-14</v>
+      </c>
+      <c r="G49">
+        <v>2.9297204158129E-2</v>
+      </c>
+      <c r="H49">
+        <v>3.0799347046147001E-2</v>
+      </c>
+      <c r="I49">
+        <v>-0.87425866590468004</v>
+      </c>
+      <c r="J49">
+        <v>7.5107144401323001E-4</v>
+      </c>
+      <c r="K49">
+        <v>0.75285321666212002</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="4"/>
+        <v>0.375535722006615</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="0"/>
+        <v>0.41717116828378242</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="1"/>
+        <v>0.84694761102171257</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="2"/>
+        <v>106.287066704766</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="3"/>
+        <v>0.37553572200661561</v>
+      </c>
+    </row>
+    <row r="50" spans="4:18">
+      <c r="D50">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="E50">
+        <v>7.0167446579757001E-4</v>
+      </c>
+      <c r="F50" s="1">
+        <v>6.3181711255872995E-14</v>
+      </c>
+      <c r="G50">
+        <v>2.7893855226541E-2</v>
+      </c>
+      <c r="H50">
+        <v>2.9297204158129E-2</v>
+      </c>
+      <c r="I50">
+        <v>-0.90869411499976005</v>
+      </c>
+      <c r="J50">
+        <v>7.0167446579757001E-4</v>
+      </c>
+      <c r="K50">
+        <v>0.74008622245417999</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="4"/>
+        <v>0.35083723289878499</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="0"/>
+        <v>0.40305021774893657</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="1"/>
+        <v>0.83245152449441462</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="2"/>
+        <v>104.56529425001199</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="3"/>
+        <v>0.35083723289878549</v>
+      </c>
+    </row>
+    <row r="51" spans="4:18">
+      <c r="D51">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E51">
+        <v>6.5580663171262003E-4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5.8656196159286999E-14</v>
+      </c>
+      <c r="G51">
+        <v>2.6582241963121998E-2</v>
+      </c>
+      <c r="H51">
+        <v>2.7893855226541E-2</v>
+      </c>
+      <c r="I51">
+        <v>-0.94247066162744997</v>
+      </c>
+      <c r="J51">
+        <v>6.5580663171262003E-4</v>
+      </c>
+      <c r="K51">
+        <v>0.72772977481107004</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="4"/>
+        <v>0.32790331585631</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="0"/>
+        <v>0.3896639174029658</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="1"/>
+        <v>0.81797414267977675</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="2"/>
+        <v>102.8764669186275</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="3"/>
+        <v>0.32790331585631471</v>
+      </c>
+    </row>
+    <row r="52" spans="4:18">
+      <c r="D52">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E52">
+        <v>6.1323685819146003E-4</v>
+      </c>
+      <c r="F52" s="1">
+        <v>5.3807211876354999E-14</v>
+      </c>
+      <c r="G52">
+        <v>2.5355768246745E-2</v>
+      </c>
+      <c r="H52">
+        <v>2.6582241963121998E-2</v>
+      </c>
+      <c r="I52">
+        <v>-0.97560112841849</v>
+      </c>
+      <c r="J52">
+        <v>6.1323685819146003E-4</v>
+      </c>
+      <c r="K52">
+        <v>0.71578503521088999</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="4"/>
+        <v>0.30661842909573001</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="0"/>
+        <v>0.3769656806567816</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="1"/>
+        <v>0.80358227733142717</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="2"/>
+        <v>101.2199435790755</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="3"/>
+        <v>0.30661842909572795</v>
+      </c>
+    </row>
+    <row r="53" spans="4:18">
+      <c r="D53">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E53">
+        <v>5.7595936591274999E-4</v>
+      </c>
+      <c r="F53" s="1">
+        <v>8.5056710221111002E-14</v>
+      </c>
+      <c r="G53">
+        <v>2.4203849514927999E-2</v>
+      </c>
+      <c r="H53">
+        <v>2.5355768246745E-2</v>
+      </c>
+      <c r="I53">
+        <v>-1.0082262941269</v>
+      </c>
+      <c r="J53">
+        <v>5.7595936591274999E-4</v>
+      </c>
+      <c r="K53">
+        <v>0.70420435269000003</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="4"/>
+        <v>0.28797968295637499</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="0"/>
+        <v>0.36486557017594384</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="1"/>
+        <v>0.78927612385438339</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="3"/>
+        <v>0.28797968295638848</v>
+      </c>
+    </row>
+    <row r="54" spans="4:18">
+      <c r="D54">
+        <v>0.1</v>
+      </c>
+      <c r="E54">
+        <v>5.4740872528865996E-4</v>
+      </c>
+      <c r="F54" s="1">
+        <v>4.4511224629320002E-14</v>
+      </c>
+      <c r="G54">
+        <v>2.3109032064354999E-2</v>
+      </c>
+      <c r="H54">
+        <v>2.4203849514927999E-2</v>
+      </c>
+      <c r="I54">
+        <v>-1.0407328584686</v>
+      </c>
+      <c r="J54">
+        <v>5.4740872528865996E-4</v>
+      </c>
+      <c r="K54">
+        <v>0.69285498614981</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="4"/>
+        <v>0.27370436264432996</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="0"/>
+        <v>0.35319574459564923</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="1"/>
+        <v>0.77493675060464695</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="3"/>
+        <v>0.27370436264434123</v>
+      </c>
+    </row>
+    <row r="55" spans="4:18">
+      <c r="D55">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E55">
+        <v>5.2016697655388004E-4</v>
+      </c>
+      <c r="F55" s="1">
+        <v>4.4963772692274001E-14</v>
+      </c>
+      <c r="G55">
+        <v>2.2068698111250999E-2</v>
+      </c>
+      <c r="H55">
+        <v>2.3109032064354999E-2</v>
+      </c>
+      <c r="I55">
+        <v>-1.0731172515689</v>
+      </c>
+      <c r="J55">
+        <v>5.2016697655388004E-4</v>
+      </c>
+      <c r="K55">
+        <v>0.68174378353513998</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="4"/>
+        <v>0.26008348827694</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="0"/>
+        <v>0.34194093840031697</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="1"/>
+        <v>0.76060938913505227</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="3"/>
+        <v>0.26008348827693167</v>
+      </c>
+    </row>
+    <row r="56" spans="4:18">
+      <c r="D56">
+        <v>0.104</v>
+      </c>
+      <c r="E56">
+        <v>4.9420275993740999E-4</v>
+      </c>
+      <c r="F56" s="1">
+        <v>4.4987276365184997E-14</v>
+      </c>
+      <c r="G56">
+        <v>2.1080292591380001E-2</v>
+      </c>
+      <c r="H56">
+        <v>2.2068698111250999E-2</v>
+      </c>
+      <c r="I56">
+        <v>-1.1053758028389</v>
+      </c>
+      <c r="J56">
+        <v>4.9420275993740999E-4</v>
+      </c>
+      <c r="K56">
+        <v>0.67087572618319002</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="4"/>
+        <v>0.24710137996870499</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="0"/>
+        <v>0.33108643563731815</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="1"/>
+        <v>0.74633495477716261</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="3"/>
+        <v>0.24710137996870979</v>
+      </c>
+    </row>
+    <row r="57" spans="4:18">
+      <c r="D57">
+        <v>0.106</v>
+      </c>
+      <c r="E57">
+        <v>4.6948104458761003E-4</v>
+      </c>
+      <c r="F57" s="1">
+        <v>4.4860320545671998E-14</v>
+      </c>
+      <c r="G57">
+        <v>2.0141330502208999E-2</v>
+      </c>
+      <c r="H57">
+        <v>2.1080292591380001E-2</v>
+      </c>
+      <c r="I57">
+        <v>-1.1375048142935</v>
+      </c>
+      <c r="J57">
+        <v>4.6948104458761003E-4</v>
+      </c>
+      <c r="K57">
+        <v>0.66025413667893995</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="4"/>
+        <v>0.23474052229380502</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="0"/>
+        <v>0.32061802608567613</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="1"/>
+        <v>0.73215010758966415</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="3"/>
+        <v>0.23474052229381354</v>
+      </c>
+    </row>
+    <row r="58" spans="4:18">
+      <c r="D58">
+        <v>0.108</v>
+      </c>
+      <c r="E58">
+        <v>4.4596381638114998E-4</v>
+      </c>
+      <c r="F58" s="1">
+        <v>4.4347144386134001E-14</v>
+      </c>
+      <c r="G58">
+        <v>1.924940286945E-2</v>
+      </c>
+      <c r="H58">
+        <v>2.0141330502208999E-2</v>
+      </c>
+      <c r="I58">
+        <v>-1.1695006209618</v>
+      </c>
+      <c r="J58">
+        <v>4.4596381638114998E-4</v>
+      </c>
+      <c r="K58">
+        <v>0.64988087336691003</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="4"/>
+        <v>0.22298190819057498</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="0"/>
+        <v>0.31052197071611048</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="1"/>
+        <v>0.71808737937717393</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="3"/>
+        <v>0.22298190819056732</v>
+      </c>
+    </row>
+    <row r="59" spans="4:18">
+      <c r="D59">
+        <v>0.11</v>
+      </c>
+      <c r="E59">
+        <v>4.2361072992024002E-4</v>
+      </c>
+      <c r="F59" s="1">
+        <v>4.3492962983571999E-14</v>
+      </c>
+      <c r="G59">
+        <v>1.8402181409613E-2</v>
+      </c>
+      <c r="H59">
+        <v>1.924940286945E-2</v>
+      </c>
+      <c r="I59">
+        <v>-1.2013596400493001</v>
+      </c>
+      <c r="J59">
+        <v>4.2361072992024002E-4</v>
+      </c>
+      <c r="K59">
+        <v>0.63975651094449004</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="4"/>
+        <v>0.21180536496012001</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="0"/>
+        <v>0.30078497446992075</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="1"/>
+        <v>0.70417535095752148</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="3"/>
+        <v>0.2118053649601056</v>
+      </c>
+    </row>
+    <row r="60" spans="4:18">
+      <c r="D60">
+        <v>0.112</v>
+      </c>
+      <c r="E60">
+        <v>4.0237971322639002E-4</v>
+      </c>
+      <c r="F60" s="1">
+        <v>4.2453006097347001E-14</v>
+      </c>
+      <c r="G60">
+        <v>1.7597421983163001E-2</v>
+      </c>
+      <c r="H60">
+        <v>1.8402181409613E-2</v>
+      </c>
+      <c r="I60">
+        <v>-1.2330784103406001</v>
+      </c>
+      <c r="J60">
+        <v>4.0237971322639002E-4</v>
+      </c>
+      <c r="K60">
+        <v>0.62988050691363995</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="4"/>
+        <v>0.201189856613195</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="0"/>
+        <v>0.29139416473858415</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="1"/>
+        <v>0.69043886583552294</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="3"/>
+        <v>0.20118985661319758</v>
+      </c>
+    </row>
+    <row r="61" spans="4:18">
+      <c r="D61">
+        <v>0.114</v>
+      </c>
+      <c r="E61">
+        <v>3.8222751799268001E-4</v>
+      </c>
+      <c r="F61" s="1">
+        <v>4.1213702413290998E-14</v>
+      </c>
+      <c r="G61">
+        <v>1.6832966947179999E-2</v>
+      </c>
+      <c r="H61">
+        <v>1.7597421983163001E-2</v>
+      </c>
+      <c r="I61">
+        <v>-1.2646536231748</v>
+      </c>
+      <c r="J61">
+        <v>3.8222751799268001E-4</v>
+      </c>
+      <c r="K61">
+        <v>0.62025135396189002</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="4"/>
+        <v>0.19111375899634001</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="0"/>
+        <v>0.28233707422492077</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="1"/>
+        <v>0.67689926844002102</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="3"/>
+        <v>0.19111375899634478</v>
+      </c>
+    </row>
+    <row r="62" spans="4:18">
+      <c r="D62">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E62">
+        <v>3.6311021174418001E-4</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3.9918999172626999E-14</v>
+      </c>
+      <c r="G62">
+        <v>1.6106746523694999E-2</v>
+      </c>
+      <c r="H62">
+        <v>1.6832966947179999E-2</v>
+      </c>
+      <c r="I62">
+        <v>-1.2960821461818</v>
+      </c>
+      <c r="J62">
+        <v>3.6311021174418001E-4</v>
+      </c>
+      <c r="K62">
+        <v>0.61086671858194996</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="4"/>
+        <v>0.18155510587209001</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="0"/>
+        <v>0.27360162711824954</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="1"/>
+        <v>0.66357465700898932</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="3"/>
+        <v>0.18155510587209381</v>
+      </c>
+    </row>
+    <row r="63" spans="4:18">
+      <c r="D63">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E63">
+        <v>3.4498361096854999E-4</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3.8575670862230001E-14</v>
+      </c>
+      <c r="G63">
+        <v>1.5416779301759999E-2</v>
+      </c>
+      <c r="H63">
+        <v>1.6106746523694999E-2</v>
+      </c>
+      <c r="I63">
+        <v>-1.3273610408365999</v>
+      </c>
+      <c r="J63">
+        <v>3.4498361096854999E-4</v>
+      </c>
+      <c r="K63">
+        <v>0.60172356642452995</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="4"/>
+        <v>0.17249180548427498</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="0"/>
+        <v>0.26517612772644078</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="1"/>
+        <v>0.65048014300225854</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="3"/>
+        <v>0.17249180548428039</v>
+      </c>
+    </row>
+    <row r="64" spans="4:18">
+      <c r="D64">
+        <v>0.12</v>
+      </c>
+      <c r="E64">
+        <v>3.2780365631731998E-4</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3.6875435947010002E-14</v>
+      </c>
+      <c r="G64">
+        <v>1.4761171989128E-2</v>
+      </c>
+      <c r="H64">
+        <v>1.5416779301759999E-2</v>
+      </c>
+      <c r="I64">
+        <v>-1.3584875747656</v>
+      </c>
+      <c r="J64">
+        <v>3.2780365631731998E-4</v>
+      </c>
+      <c r="K64">
+        <v>0.59281827501708995</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="4"/>
+        <v>0.16390182815866</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="0"/>
+        <v>0.25704925088413833</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="1"/>
+        <v>0.63762811054652579</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="3"/>
+        <v>0.16390182815865301</v>
+      </c>
+    </row>
+    <row r="65" spans="4:18">
+      <c r="D65">
+        <v>0.122</v>
+      </c>
+      <c r="E65">
+        <v>3.1152673244729998E-4</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3.5325599607377998E-14</v>
+      </c>
+      <c r="G65">
+        <v>1.4138118524235001E-2</v>
+      </c>
+      <c r="H65">
+        <v>1.4761171989128E-2</v>
+      </c>
+      <c r="I65">
+        <v>-1.3894592296282</v>
+      </c>
+      <c r="J65">
+        <v>3.1152673244729998E-4</v>
+      </c>
+      <c r="K65">
+        <v>0.58414673457749</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="4"/>
+        <v>0.15576336622364997</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="0"/>
+        <v>0.24921003360219454</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="1"/>
+        <v>0.62502847085320146</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="3"/>
+        <v>0.15576336622365464</v>
+      </c>
+    </row>
+    <row r="66" spans="4:18">
+      <c r="D66">
+        <v>0.124</v>
+      </c>
+      <c r="E66">
+        <v>2.9610993607064002E-4</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3.3586591758025002E-14</v>
+      </c>
+      <c r="G66">
+        <v>1.3545898652095999E-2</v>
+      </c>
+      <c r="H66">
+        <v>1.4138118524235001E-2</v>
+      </c>
+      <c r="I66">
+        <v>-1.4202737052987</v>
+      </c>
+      <c r="J66">
+        <v>2.9610993607064002E-4</v>
+      </c>
+      <c r="K66">
+        <v>0.57570443771279001</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="4"/>
+        <v>0.14805496803532001</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="0"/>
+        <v>0.24164786754296899</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="1"/>
+        <v>0.61268890779262752</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="3"/>
+        <v>0.1480549680353192</v>
+      </c>
+    </row>
+    <row r="67" spans="4:18">
+      <c r="D67">
+        <v>0.126</v>
+      </c>
+      <c r="E67">
+        <v>2.8151129640248998E-4</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3.2041227402174998E-14</v>
+      </c>
+      <c r="G67">
+        <v>1.2982876059291999E-2</v>
+      </c>
+      <c r="H67">
+        <v>1.3545898652095999E-2</v>
+      </c>
+      <c r="I67">
+        <v>-1.4509289209770999</v>
+      </c>
+      <c r="J67">
+        <v>2.8151129640248998E-4</v>
+      </c>
+      <c r="K67">
+        <v>0.56748655882459997</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="4"/>
+        <v>0.14075564820124498</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="0"/>
+        <v>0.23435249200592159</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="1"/>
+        <v>0.60061511186186789</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="3"/>
+        <v>0.14075564820124409</v>
+      </c>
+    </row>
+    <row r="68" spans="4:18">
+      <c r="D68">
+        <v>0.128</v>
+      </c>
+      <c r="E68">
+        <v>2.6768995251928002E-4</v>
+      </c>
+      <c r="F68" s="1">
+        <v>3.0355511131624001E-14</v>
+      </c>
+      <c r="G68">
+        <v>1.2447496154255E-2</v>
+      </c>
+      <c r="H68">
+        <v>1.2982876059291999E-2</v>
+      </c>
+      <c r="I68">
+        <v>-1.4814230137824</v>
+      </c>
+      <c r="J68">
+        <v>2.6768995251928002E-4</v>
+      </c>
+      <c r="K68">
+        <v>0.55948802405105003</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="4"/>
+        <v>0.13384497625964001</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="0"/>
+        <v>0.22731398718610546</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="1"/>
+        <v>0.58881100066249592</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="3"/>
+        <v>0.13384497625963254</v>
+      </c>
+    </row>
+    <row r="69" spans="4:18">
+      <c r="D69">
+        <v>0.13</v>
+      </c>
+      <c r="E69">
+        <v>2.5460629223787002E-4</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2.8774788174641999E-14</v>
+      </c>
+      <c r="G69">
+        <v>1.1938283569780999E-2</v>
+      </c>
+      <c r="H69">
+        <v>1.2447496154255E-2</v>
+      </c>
+      <c r="I69">
+        <v>-1.5117543353013001</v>
+      </c>
+      <c r="J69">
+        <v>2.5460629223787002E-4</v>
+      </c>
+      <c r="K69">
+        <v>0.55170357256411995</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="4"/>
+        <v>0.12730314611893501</v>
+      </c>
+      <c r="O69">
+        <f t="shared" ref="O69:O104" si="5">EXP(I69)</f>
+        <v>0.22052276753440295</v>
+      </c>
+      <c r="P69">
+        <f t="shared" ref="P69:P104" si="6">3*K69^2-2*K69^3</f>
+        <v>0.57727892472179521</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" ref="Q69:Q104" si="7">IF(I69&lt;-1,100,IF(I69&gt;1,200,150+(200-100)*I69/2))</f>
+        <v>100</v>
+      </c>
+      <c r="R69">
+        <f t="shared" ref="R69:R104" si="8">O69*0.01*P69*Q69</f>
+        <v>0.12730314611893453</v>
+      </c>
+    </row>
+    <row r="70" spans="4:18">
+      <c r="D70">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E70">
+        <v>2.4222205705600001E-4</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2.7067832536731999E-14</v>
+      </c>
+      <c r="G70">
+        <v>1.145383945567E-2</v>
+      </c>
+      <c r="H70">
+        <v>1.1938283569780999E-2</v>
+      </c>
+      <c r="I70">
+        <v>-1.541921446505</v>
+      </c>
+      <c r="J70">
+        <v>2.4222205705600001E-4</v>
+      </c>
+      <c r="K70">
+        <v>0.54412781001699995</v>
+      </c>
+      <c r="M70">
+        <f t="shared" ref="M70:M104" si="9">J70/($D$5-$D$4)</f>
+        <v>0.121111028528</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="5"/>
+        <v>0.21396957509842734</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="6"/>
+        <v>0.56601985806762112</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="8"/>
+        <v>0.12111102852800104</v>
+      </c>
+    </row>
+    <row r="71" spans="4:18">
+      <c r="D71">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="E71">
+        <v>2.3050041750548E-4</v>
+      </c>
+      <c r="F71" s="1">
+        <v>2.5541690706336001E-14</v>
+      </c>
+      <c r="G71">
+        <v>1.099283862066E-2</v>
+      </c>
+      <c r="H71">
+        <v>1.145383945567E-2</v>
+      </c>
+      <c r="I71">
+        <v>-1.5719231113850001</v>
+      </c>
+      <c r="J71">
+        <v>2.3050041750548E-4</v>
+      </c>
+      <c r="K71">
+        <v>0.53675525490086995</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="9"/>
+        <v>0.11525020875274</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="5"/>
+        <v>0.20764547276445841</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="6"/>
+        <v>0.55503357341903348</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="8"/>
+        <v>0.11525020875274194</v>
+      </c>
+    </row>
+    <row r="72" spans="4:18">
+      <c r="D72">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E72">
+        <v>2.1940602300192001E-4</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2.4072286832229001E-14</v>
+      </c>
+      <c r="G72">
+        <v>1.0554026574657999E-2</v>
+      </c>
+      <c r="H72">
+        <v>1.099283862066E-2</v>
+      </c>
+      <c r="I72">
+        <v>-1.6017582896086</v>
+      </c>
+      <c r="J72">
+        <v>2.1940602300192001E-4</v>
+      </c>
+      <c r="K72">
+        <v>0.52958037852833995</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="9"/>
+        <v>0.10970301150096</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="5"/>
+        <v>0.20154183735207401</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="6"/>
+        <v>0.54431880220144024</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="8"/>
+        <v>0.10970301150095843</v>
+      </c>
+    </row>
+    <row r="73" spans="4:18">
+      <c r="D73">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E73">
+        <v>2.0890502995738001E-4</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2.2679419387396999E-14</v>
+      </c>
+      <c r="G73">
+        <v>1.0136216514743999E-2</v>
+      </c>
+      <c r="H73">
+        <v>1.0554026574657999E-2</v>
+      </c>
+      <c r="I73">
+        <v>-1.6314261284494</v>
+      </c>
+      <c r="J73">
+        <v>2.0890502995738001E-4</v>
+      </c>
+      <c r="K73">
+        <v>0.52259763931456005</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="9"/>
+        <v>0.10445251497869</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="5"/>
+        <v>0.19565035253741875</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="6"/>
+        <v>0.53387337985354655</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="8"/>
+        <v>0.10445251497868965</v>
+      </c>
+    </row>
+    <row r="74" spans="4:18">
+      <c r="D74">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E74">
+        <v>1.9896511158093999E-4</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2.1166337946853001E-14</v>
+      </c>
+      <c r="G74">
+        <v>9.7382862915826995E-3</v>
+      </c>
+      <c r="H74">
+        <v>1.0136216514743999E-2</v>
+      </c>
+      <c r="I74">
+        <v>-1.6609259542076</v>
+      </c>
+      <c r="J74">
+        <v>1.9896511158093999E-4</v>
+      </c>
+      <c r="K74">
+        <v>0.51580151197785995</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="9"/>
+        <v>9.9482555790469995E-2</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="5"/>
+        <v>0.1899630015994575</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="6"/>
+        <v>0.52369437707787236</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="8"/>
+        <v>9.9482555790470759E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="4:18">
+      <c r="D75">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E75">
+        <v>1.8955545244261999E-4</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.9938346225872999E-14</v>
+      </c>
+      <c r="G75">
+        <v>9.3591753866982003E-3</v>
+      </c>
+      <c r="H75">
+        <v>9.7382862915826995E-3</v>
+      </c>
+      <c r="I75">
+        <v>-1.6902572633004</v>
+      </c>
+      <c r="J75">
+        <v>1.8955545244261999E-4</v>
+      </c>
+      <c r="K75">
+        <v>0.50918651223227995</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="9"/>
+        <v>9.4777726221309991E-2</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="5"/>
+        <v>0.18447205999689251</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="6"/>
+        <v>0.51377821781201083</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="8"/>
+        <v>9.4777726221313766E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="4:18">
+      <c r="D76">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="E76">
+        <v>1.8064673053289E-4</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1.8569052611741999E-14</v>
+      </c>
+      <c r="G76">
+        <v>8.9978819256331007E-3</v>
+      </c>
+      <c r="H76">
+        <v>9.3591753866982003E-3</v>
+      </c>
+      <c r="I76">
+        <v>-1.7194197131724001</v>
+      </c>
+      <c r="J76">
+        <v>1.8064673053289E-4</v>
+      </c>
+      <c r="K76">
+        <v>0.50274721749529006</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="9"/>
+        <v>9.0323365266444994E-2</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="5"/>
+        <v>0.17917008779295071</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="6"/>
+        <v>0.50412078477531352</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="8"/>
+        <v>9.0323365266444133E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="4:18">
+      <c r="D77">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E77">
+        <v>1.7221108922058E-4</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1.7395054774822E-14</v>
+      </c>
+      <c r="G77">
+        <v>8.6534597471924993E-3</v>
+      </c>
+      <c r="H77">
+        <v>8.9978819256331007E-3</v>
+      </c>
+      <c r="I77">
+        <v>-1.7484131131492</v>
+      </c>
+      <c r="J77">
+        <v>1.7221108922058E-4</v>
+      </c>
+      <c r="K77">
+        <v>0.49647828408625</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="9"/>
+        <v>8.6105544610290005E-2</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="5"/>
+        <v>0.17404992195173138</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="6"/>
+        <v>0.49471751348541837</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="8"/>
+        <v>8.6105544610291684E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="4:18">
+      <c r="D78">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E78">
+        <v>1.6422210120353001E-4</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1.6296421772868001E-14</v>
+      </c>
+      <c r="G78">
+        <v>8.3250155447859991E-3</v>
+      </c>
+      <c r="H78">
+        <v>8.6534597471924993E-3</v>
+      </c>
+      <c r="I78">
+        <v>-1.7772374153366</v>
+      </c>
+      <c r="J78">
+        <v>1.6422210120353001E-4</v>
+      </c>
+      <c r="K78">
+        <v>0.49037446134578999</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="9"/>
+        <v>8.2111050601765004E-2</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="5"/>
+        <v>0.16910466853344705</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="6"/>
+        <v>0.48556347565014052</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="8"/>
+        <v>8.2111050601765503E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="4:18">
+      <c r="D79">
+        <v>0.15</v>
+      </c>
+      <c r="E79">
+        <v>1.5665472626149999E-4</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1.5290716588703001E-14</v>
+      </c>
+      <c r="G79">
+        <v>8.0117060922634993E-3</v>
+      </c>
+      <c r="H79">
+        <v>8.3250155447859991E-3</v>
+      </c>
+      <c r="I79">
+        <v>-1.8058927056451</v>
+      </c>
+      <c r="J79">
+        <v>1.5665472626149999E-4</v>
+      </c>
+      <c r="K79">
+        <v>0.48443060306337998</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="9"/>
+        <v>7.8327363130749991E-2</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="5"/>
+        <v>0.16432769481856541</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="6"/>
+        <v>0.47665345282930444</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="8"/>
+        <v>7.8327363130749408E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="4:18">
+      <c r="D80">
+        <v>0.152</v>
+      </c>
+      <c r="E80">
+        <v>1.4948526436171E-4</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1.4231305206211E-14</v>
+      </c>
+      <c r="G80">
+        <v>7.7127355635405997E-3</v>
+      </c>
+      <c r="H80">
+        <v>8.0117060922634993E-3</v>
+      </c>
+      <c r="I80">
+        <v>-1.8343791950057</v>
+      </c>
+      <c r="J80">
+        <v>1.4948526436171E-4</v>
+      </c>
+      <c r="K80">
+        <v>0.47864167656010997</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="9"/>
+        <v>7.4742632180855001E-2</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="5"/>
+        <v>0.15971262139096845</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="6"/>
+        <v>0.46798200123385797</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="8"/>
+        <v>7.4742632180850893E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="4:18">
+      <c r="D81">
+        <v>0.154</v>
+      </c>
+      <c r="E81">
+        <v>1.4269130543402E-4</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1.3262421955412E-14</v>
+      </c>
+      <c r="G81">
+        <v>7.4273529526728997E-3</v>
+      </c>
+      <c r="H81">
+        <v>7.7127355635405997E-3</v>
+      </c>
+      <c r="I81">
+        <v>-1.8626972108276001</v>
+      </c>
+      <c r="J81">
+        <v>1.4269130543402E-4</v>
+      </c>
+      <c r="K81">
+        <v>0.47300276973667998</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="9"/>
+        <v>7.1345652717010002E-2</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="5"/>
+        <v>0.15525331421005698</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="6"/>
+        <v>0.45954350849143444</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="8"/>
+        <v>7.1345652717012653E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="4:18">
+      <c r="D82">
+        <v>0.156</v>
+      </c>
+      <c r="E82">
+        <v>1.3625167692554E-4</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1.2431496723449E-14</v>
+      </c>
+      <c r="G82">
+        <v>7.1548495988221997E-3</v>
+      </c>
+      <c r="H82">
+        <v>7.4273529526728997E-3</v>
+      </c>
+      <c r="I82">
+        <v>-1.8908471887364999</v>
+      </c>
+      <c r="J82">
+        <v>1.3625167692554E-4</v>
+      </c>
+      <c r="K82">
+        <v>0.46750909636255</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="9"/>
+        <v>6.8125838462769997E-2</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="5"/>
+        <v>0.15094387670050599</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="6"/>
+        <v>0.45133224316176096</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="8"/>
+        <v>6.8125838462771635E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="4:18">
+      <c r="D83">
+        <v>0.158</v>
+      </c>
+      <c r="E83">
+        <v>1.3014639006060999E-4</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1.1637337745948E-14</v>
+      </c>
+      <c r="G83">
+        <v>6.8945568187012999E-3</v>
+      </c>
+      <c r="H83">
+        <v>7.1548495988221997E-3</v>
+      </c>
+      <c r="I83">
+        <v>-1.9188296646212999</v>
+      </c>
+      <c r="J83">
+        <v>1.3014639006060999E-4</v>
+      </c>
+      <c r="K83">
+        <v>0.4621559998509</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="9"/>
+        <v>6.5073195030304995E-2</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="5"/>
+        <v>0.1467786418867458</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="6"/>
+        <v>0.4433423977346464</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="8"/>
+        <v>6.5073195030304898E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="4:18">
+      <c r="D84">
+        <v>0.16</v>
+      </c>
+      <c r="E84">
+        <v>1.2435658557194E-4</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1.0825686735434001E-14</v>
+      </c>
+      <c r="G84">
+        <v>6.6458436475577004E-3</v>
+      </c>
+      <c r="H84">
+        <v>6.8945568187012999E-3</v>
+      </c>
+      <c r="I84">
+        <v>-1.9466452670109</v>
+      </c>
+      <c r="J84">
+        <v>1.2435658557194E-4</v>
+      </c>
+      <c r="K84">
+        <v>0.45693895573579002</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="9"/>
+        <v>6.217829278597E-2</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="5"/>
+        <v>0.14275216459677434</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="6"/>
+        <v>0.43556812579061893</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="8"/>
+        <v>6.2178292785970951E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="4:18">
+      <c r="D85">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E85">
+        <v>1.1886447952905001E-4</v>
+      </c>
+      <c r="F85" s="1">
+        <v>9.9998742302311999E-15</v>
+      </c>
+      <c r="G85">
+        <v>6.4081146884998998E-3</v>
+      </c>
+      <c r="H85">
+        <v>6.6458436475577004E-3</v>
+      </c>
+      <c r="I85">
+        <v>-1.9742947097920001</v>
+      </c>
+      <c r="J85">
+        <v>1.1886447952905001E-4</v>
+      </c>
+      <c r="K85">
+        <v>0.45185357304237</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="9"/>
+        <v>5.9432239764525004E-2</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="5"/>
+        <v>0.13885921375816115</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="6"/>
+        <v>0.4280035739510622</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="8"/>
+        <v>5.9432239764527488E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="4:18">
+      <c r="D86">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E86">
+        <v>1.1365330976929E-4</v>
+      </c>
+      <c r="F86" s="1">
+        <v>9.3702375206415003E-15</v>
+      </c>
+      <c r="G86">
+        <v>6.1808080689615E-3</v>
+      </c>
+      <c r="H86">
+        <v>6.4081146884998998E-3</v>
+      </c>
+      <c r="I86">
+        <v>-2.0017787852775002</v>
+      </c>
+      <c r="J86">
+        <v>1.1365330976929E-4</v>
+      </c>
+      <c r="K86">
+        <v>0.44689559471802998</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="9"/>
+        <v>5.6826654884645E-2</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="5"/>
+        <v>0.13509476480600499</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="6"/>
+        <v>0.42064290919229064</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="8"/>
+        <v>5.6826654884646222E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="4:18">
+      <c r="D87">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E87">
+        <v>1.087072833338E-4</v>
+      </c>
+      <c r="F87" s="1">
+        <v>8.7848915506383995E-15</v>
+      </c>
+      <c r="G87">
+        <v>5.9633935022942001E-3</v>
+      </c>
+      <c r="H87">
+        <v>6.1808080689615E-3</v>
+      </c>
+      <c r="I87">
+        <v>-2.0290983576257</v>
+      </c>
+      <c r="J87">
+        <v>1.087072833338E-4</v>
+      </c>
+      <c r="K87">
+        <v>0.4420608972715</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="9"/>
+        <v>5.4353641666900002E-2</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="5"/>
+        <v>0.1314539922208548</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="6"/>
+        <v>0.41348034204682066</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="8"/>
+        <v>5.4353641666899148E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="4:18">
+      <c r="D88">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E88">
+        <v>1.0401152522234E-4</v>
+      </c>
+      <c r="F88" s="1">
+        <v>8.2156405994224996E-15</v>
+      </c>
+      <c r="G88">
+        <v>5.7553704518497001E-3</v>
+      </c>
+      <c r="H88">
+        <v>5.9633935022942001E-3</v>
+      </c>
+      <c r="I88">
+        <v>-2.0562543566098999</v>
+      </c>
+      <c r="J88">
+        <v>1.0401152522234E-4</v>
+      </c>
+      <c r="K88">
+        <v>0.43734548974873999</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="9"/>
+        <v>5.2005762611170001E-2</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="5"/>
+        <v>0.12793226221172987</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="6"/>
+        <v>0.4065101461670329</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="8"/>
+        <v>5.2005762611169494E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="4:18">
+      <c r="D89">
+        <v>0.17</v>
+      </c>
+      <c r="E89" s="1">
+        <v>9.9552028706362006E-5</v>
+      </c>
+      <c r="F89" s="1">
+        <v>7.6678711469872001E-15</v>
+      </c>
+      <c r="G89">
+        <v>5.5562663944371E-3</v>
+      </c>
+      <c r="H89">
+        <v>5.7553704518497001E-3</v>
+      </c>
+      <c r="I89">
+        <v>-2.0832477717337001</v>
+      </c>
+      <c r="J89" s="1">
+        <v>9.9552028706362006E-5</v>
+      </c>
+      <c r="K89">
+        <v>0.43274551215793</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="9"/>
+        <v>4.9776014353180999E-2</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="5"/>
+        <v>0.12452512555726221</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="6"/>
+        <v>0.39972667468054951</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="8"/>
+        <v>4.9776014353182331E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="4:18">
+      <c r="D90">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E90" s="1">
+        <v>9.5315607376860996E-5</v>
+      </c>
+      <c r="F90" s="1">
+        <v>7.0679262358380002E-15</v>
+      </c>
+      <c r="G90">
+        <v>5.3656351796836001E-3</v>
+      </c>
+      <c r="H90">
+        <v>5.5562663944371E-3</v>
+      </c>
+      <c r="I90">
+        <v>-2.1100796466849001</v>
+      </c>
+      <c r="J90" s="1">
+        <v>9.5315607376860007E-5</v>
+      </c>
+      <c r="K90">
+        <v>0.42825723344118</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="9"/>
+        <v>4.7657803688429999E-2</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="5"/>
+        <v>0.12122831061580325</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="6"/>
+        <v>0.39312437372380049</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="8"/>
+        <v>4.7657803688432004E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="4:18">
+      <c r="D91">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E91" s="1">
+        <v>9.1289849051261996E-5</v>
+      </c>
+      <c r="F91" s="1">
+        <v>6.6190792914667997E-15</v>
+      </c>
+      <c r="G91">
+        <v>5.1830554815812E-3</v>
+      </c>
+      <c r="H91">
+        <v>5.3656351796836001E-3</v>
+      </c>
+      <c r="I91">
+        <v>-2.1367510741182998</v>
+      </c>
+      <c r="J91" s="1">
+        <v>9.1289849051261996E-5</v>
+      </c>
+      <c r="K91">
+        <v>0.42387704907790003</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="9"/>
+        <v>4.5644924525630994E-2</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="5"/>
+        <v>0.11803771651339254</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="6"/>
+        <v>0.38669779350104339</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="8"/>
+        <v>4.564492452563057E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="4:18">
+      <c r="D92">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E92" s="1">
+        <v>8.7463071619852002E-5</v>
+      </c>
+      <c r="F92" s="1">
+        <v>6.1278493363284998E-15</v>
+      </c>
+      <c r="G92">
+        <v>5.0081293383415996E-3</v>
+      </c>
+      <c r="H92">
+        <v>5.1830554815812E-3</v>
+      </c>
+      <c r="I92">
+        <v>-2.1632631907573998</v>
+      </c>
+      <c r="J92" s="1">
+        <v>8.7463071619851E-5</v>
+      </c>
+      <c r="K92">
+        <v>0.41960147839304002</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="9"/>
+        <v>4.3731535809925497E-2</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="5"/>
+        <v>0.11494940651646916</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="6"/>
+        <v>0.38044159717919945</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="8"/>
+        <v>4.37315358099266E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="4:18">
+      <c r="D93">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E93" s="1">
+        <v>8.3824280876624004E-5</v>
+      </c>
+      <c r="F93" s="1">
+        <v>5.7685493866911998E-15</v>
+      </c>
+      <c r="G93">
+        <v>4.8404807765885004E-3</v>
+      </c>
+      <c r="H93">
+        <v>5.0081293383415996E-3</v>
+      </c>
+      <c r="I93">
+        <v>-2.1896171728040001</v>
+      </c>
+      <c r="J93" s="1">
+        <v>8.3824280876623001E-5</v>
+      </c>
+      <c r="K93">
+        <v>0.41542716163365001</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="9"/>
+        <v>4.1912140438311499E-2</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="5"/>
+        <v>0.11195960159450664</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="6"/>
+        <v>0.37435056789597171</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="8"/>
+        <v>4.1912140438310298E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="4:18">
+      <c r="D94">
+        <v>0.18</v>
+      </c>
+      <c r="E94" s="1">
+        <v>8.0363130350187E-5</v>
+      </c>
+      <c r="F94" s="1">
+        <v>5.4664304694686003E-15</v>
+      </c>
+      <c r="G94">
+        <v>4.6797545158881997E-3</v>
+      </c>
+      <c r="H94">
+        <v>4.8404807765885004E-3</v>
+      </c>
+      <c r="I94">
+        <v>-2.2158142316415002</v>
+      </c>
+      <c r="J94" s="1">
+        <v>8.0363130350187E-5</v>
+      </c>
+      <c r="K94">
+        <v>0.41135085686810002</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="9"/>
+        <v>4.0181565175093498E-2</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="5"/>
+        <v>0.10906467417648905</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="6"/>
+        <v>0.36841961412794477</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="8"/>
+        <v>4.0181565175092117E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="4:18">
+      <c r="D95">
+        <v>0.182</v>
+      </c>
+      <c r="E95" s="1">
+        <v>7.7069883126846002E-5</v>
+      </c>
+      <c r="F95" s="1">
+        <v>4.9467316226998996E-15</v>
+      </c>
+      <c r="G95">
+        <v>4.5256147496345999E-3</v>
+      </c>
+      <c r="H95">
+        <v>4.6797545158881997E-3</v>
+      </c>
+      <c r="I95">
+        <v>-2.2418556098214002</v>
+      </c>
+      <c r="J95" s="1">
+        <v>7.7069883126846002E-5</v>
+      </c>
+      <c r="K95">
+        <v>0.40736943675470999</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="9"/>
+        <v>3.8534941563422999E-2</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="5"/>
+        <v>0.1062611421032752</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="6"/>
+        <v>0.36264377363807376</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="8"/>
+        <v>3.8534941563423325E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="4:18">
+      <c r="D96">
+        <v>0.184</v>
+      </c>
+      <c r="E96" s="1">
+        <v>7.3935375639238007E-5</v>
+      </c>
+      <c r="F96" s="1">
+        <v>4.6274314807034999E-15</v>
+      </c>
+      <c r="G96">
+        <v>4.3777439983561997E-3</v>
+      </c>
+      <c r="H96">
+        <v>4.5256147496345999E-3</v>
+      </c>
+      <c r="I96">
+        <v>-2.2677425773182001</v>
+      </c>
+      <c r="J96" s="1">
+        <v>7.3935375639238007E-5</v>
+      </c>
+      <c r="K96">
+        <v>0.40347988521960998</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="9"/>
+        <v>3.6967687819619004E-2</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="5"/>
+        <v>0.10354566277713918</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="6"/>
+        <v>0.35701821619687935</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="8"/>
+        <v>3.6967687819617845E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="4:18">
+      <c r="D97">
+        <v>0.186</v>
+      </c>
+      <c r="E97" s="1">
+        <v>7.0950983379202995E-5</v>
+      </c>
+      <c r="F97" s="1">
+        <v>4.3803168008408002E-15</v>
+      </c>
+      <c r="G97">
+        <v>4.2358420315978997E-3</v>
+      </c>
+      <c r="H97">
+        <v>4.3777439983561997E-3</v>
+      </c>
+      <c r="I97">
+        <v>-2.2934764280395998</v>
+      </c>
+      <c r="J97" s="1">
+        <v>7.0950983379202995E-5</v>
+      </c>
+      <c r="K97">
+        <v>0.39967929407767</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="9"/>
+        <v>3.5475491689601499E-2</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="5"/>
+        <v>0.10091502750846949</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="6"/>
+        <v>0.35153824524918864</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="8"/>
+        <v>3.5475491689600964E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="4:18">
+      <c r="D98">
+        <v>0.188</v>
+      </c>
+      <c r="E98" s="1">
+        <v>6.8108588482295994E-5</v>
+      </c>
+      <c r="F98" s="1">
+        <v>4.1102423077385999E-15</v>
+      </c>
+      <c r="G98">
+        <v>4.0996248546333004E-3</v>
+      </c>
+      <c r="H98">
+        <v>4.2358420315978997E-3</v>
+      </c>
+      <c r="I98">
+        <v>-2.3190584765801998</v>
+      </c>
+      <c r="J98" s="1">
+        <v>6.8108588482295994E-5</v>
+      </c>
+      <c r="K98">
+        <v>0.39596485962528</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="9"/>
+        <v>3.4054294241147996E-2</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="5"/>
+        <v>9.8366156058542695E-2</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="6"/>
+        <v>0.34619929867830851</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="8"/>
+        <v>3.4054294241148524E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="4:18">
+      <c r="D99">
+        <v>0.19</v>
+      </c>
+      <c r="E99" s="1">
+        <v>6.5400549122877002E-5</v>
+      </c>
+      <c r="F99" s="1">
+        <v>3.8162654536249997E-15</v>
+      </c>
+      <c r="G99">
+        <v>3.9688237563875999E-3</v>
+      </c>
+      <c r="H99">
+        <v>4.0996248546333004E-3</v>
+      </c>
+      <c r="I99">
+        <v>-2.3444900552041998</v>
+      </c>
+      <c r="J99" s="1">
+        <v>6.5400549122877002E-5</v>
+      </c>
+      <c r="K99">
+        <v>0.39233387922906998</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="9"/>
+        <v>3.2700274561438501E-2</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="5"/>
+        <v>9.5896091376766024E-2</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="6"/>
+        <v>0.34099694880121922</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="8"/>
+        <v>3.2700274561440132E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="4:18">
+      <c r="D100">
+        <v>0.192</v>
+      </c>
+      <c r="E100" s="1">
+        <v>6.2819670652650001E-5</v>
+      </c>
+      <c r="F100" s="1">
+        <v>3.6639666428089996E-15</v>
+      </c>
+      <c r="G100">
+        <v>3.8431844150823998E-3</v>
+      </c>
+      <c r="H100">
+        <v>3.9688237563875999E-3</v>
+      </c>
+      <c r="I100">
+        <v>-2.3697725110454</v>
+      </c>
+      <c r="J100" s="1">
+        <v>6.2819670652650001E-5</v>
+      </c>
+      <c r="K100">
+        <v>0.38878374793081</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="9"/>
+        <v>3.1409835326324999E-2</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="5"/>
+        <v>9.3501994529809174E-2</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="6"/>
+        <v>0.33592690171236961</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="8"/>
+        <v>3.1409835326325734E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="4:18">
+      <c r="D101">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="E101" s="1">
+        <v>6.0359178411379003E-5</v>
+      </c>
+      <c r="F101" s="1">
+        <v>3.3246963351390999E-15</v>
+      </c>
+      <c r="G101">
+        <v>3.7224660582596998E-3</v>
+      </c>
+      <c r="H101">
+        <v>3.8431844150823998E-3</v>
+      </c>
+      <c r="I101">
+        <v>-2.3949072035115999</v>
+      </c>
+      <c r="J101" s="1">
+        <v>6.0359178411379003E-5</v>
+      </c>
+      <c r="K101">
+        <v>0.38531195508527999</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="9"/>
+        <v>3.01795892056895E-2</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="5"/>
+        <v>9.1181139819604601E-2</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="6"/>
+        <v>0.3309849960792095</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="8"/>
+        <v>3.0179589205689684E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="4:18">
+      <c r="D102">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E102" s="1">
+        <v>5.8012692135965003E-5</v>
+      </c>
+      <c r="F102" s="1">
+        <v>3.2249840561057E-15</v>
+      </c>
+      <c r="G102">
+        <v>3.6064406739877999E-3</v>
+      </c>
+      <c r="H102">
+        <v>3.7224660582596998E-3</v>
+      </c>
+      <c r="I102">
+        <v>-2.4198955018818999</v>
+      </c>
+      <c r="J102" s="1">
+        <v>5.8012692135964E-5</v>
+      </c>
+      <c r="K102">
+        <v>0.38191608104483998</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="9"/>
+        <v>2.9006346067982001E-2</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="5"/>
+        <v>8.8930910086591819E-2</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="6"/>
+        <v>0.32616720147964468</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="8"/>
+        <v>2.900634606798156E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="4:18">
+      <c r="D103">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E103" s="1">
+        <v>5.5774201892854999E-5</v>
+      </c>
+      <c r="F103" s="1">
+        <v>2.9313766690453999E-15</v>
+      </c>
+      <c r="G103">
+        <v>3.4948922702021002E-3</v>
+      </c>
+      <c r="H103">
+        <v>3.6064406739877999E-3</v>
+      </c>
+      <c r="I103">
+        <v>-2.444738783085</v>
+      </c>
+      <c r="J103" s="1">
+        <v>5.5774201892854999E-5</v>
+      </c>
+      <c r="K103">
+        <v>0.37859379390212999</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="9"/>
+        <v>2.78871009464275E-2</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="5"/>
+        <v>8.6748792194245236E-2</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="6"/>
+        <v>0.32146961636058324</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="8"/>
+        <v>2.7887100946427976E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="4:18">
+      <c r="D104">
+        <v>0.2</v>
+      </c>
+      <c r="E104" s="1">
+        <v>5.3638045458543001E-5</v>
+      </c>
+      <c r="F104" s="1">
+        <v>2.7095175405328002E-15</v>
+      </c>
+      <c r="G104">
+        <v>3.3876161792851002E-3</v>
+      </c>
+      <c r="H104">
+        <v>3.4948922702021002E-3</v>
+      </c>
+      <c r="I104">
+        <v>-2.4694384296482998</v>
+      </c>
+      <c r="J104" s="1">
+        <v>5.3638045458543001E-5</v>
+      </c>
+      <c r="K104">
+        <v>0.37534284629985998</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="9"/>
+        <v>2.6819022729271499E-2</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="5"/>
+        <v>8.4632372690473551E-2</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="6"/>
+        <v>0.31688846568626833</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="8"/>
+        <v>2.6819022729272599E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="4:18">
+      <c r="M105" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="106" spans="4:18">
+      <c r="M106" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="107" spans="4:18">
+      <c r="M107" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="108" spans="4:18">
+      <c r="M108" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="109" spans="4:18">
+      <c r="M109" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="110" spans="4:18">
+      <c r="M110" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="111" spans="4:18">
+      <c r="M111" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="112" spans="4:18">
+      <c r="M112" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="113" spans="13:13">
+      <c r="M113" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="114" spans="13:13">
+      <c r="M114" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="115" spans="13:13">
+      <c r="M115" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="116" spans="13:13">
+      <c r="M116" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="117" spans="13:13">
+      <c r="M117" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="118" spans="13:13">
+      <c r="M118" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="119" spans="13:13">
+      <c r="M119" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="120" spans="13:13">
+      <c r="M120" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="121" spans="13:13">
+      <c r="M121" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="122" spans="13:13">
+      <c r="M122" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="123" spans="13:13">
+      <c r="M123" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="124" spans="13:13">
+      <c r="M124" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="125" spans="13:13">
+      <c r="M125" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="126" spans="13:13">
+      <c r="M126" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="127" spans="13:13">
+      <c r="M127" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="128" spans="13:13">
+      <c r="M128" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="129" spans="13:13">
+      <c r="M129" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="130" spans="13:13">
+      <c r="M130" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="131" spans="13:13">
+      <c r="M131" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="132" spans="13:13">
+      <c r="M132" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="133" spans="13:13">
+      <c r="M133" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="134" spans="13:13">
+      <c r="M134" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="135" spans="13:13">
+      <c r="M135" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="136" spans="13:13">
+      <c r="M136" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="137" spans="13:13">
+      <c r="M137" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="138" spans="13:13">
+      <c r="M138" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="139" spans="13:13">
+      <c r="M139" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="140" spans="13:13">
+      <c r="M140" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="141" spans="13:13">
+      <c r="M141" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="142" spans="13:13">
+      <c r="M142" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="143" spans="13:13">
+      <c r="M143" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="144" spans="13:13">
+      <c r="M144" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="145" spans="13:13">
+      <c r="M145" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="146" spans="13:13">
+      <c r="M146" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="147" spans="13:13">
+      <c r="M147" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="148" spans="13:13">
+      <c r="M148" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="149" spans="13:13">
+      <c r="M149" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="150" spans="13:13">
+      <c r="M150" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="151" spans="13:13">
+      <c r="M151" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="152" spans="13:13">
+      <c r="M152" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="153" spans="13:13">
+      <c r="M153" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="154" spans="13:13">
+      <c r="M154" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="155" spans="13:13">
+      <c r="M155" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="156" spans="13:13">
+      <c r="M156" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="157" spans="13:13">
+      <c r="M157" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="158" spans="13:13">
+      <c r="M158" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="159" spans="13:13">
+      <c r="M159" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="160" spans="13:13">
+      <c r="M160" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="161" spans="13:13">
+      <c r="M161" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="162" spans="13:13">
+      <c r="M162" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="163" spans="13:13">
+      <c r="M163" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="164" spans="13:13">
+      <c r="M164" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="165" spans="13:13">
+      <c r="M165" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="166" spans="13:13">
+      <c r="M166" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="167" spans="13:13">
+      <c r="M167" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="168" spans="13:13">
+      <c r="M168" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="169" spans="13:13">
+      <c r="M169" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="170" spans="13:13">
+      <c r="M170" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="171" spans="13:13">
+      <c r="M171" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="172" spans="13:13">
+      <c r="M172" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="173" spans="13:13">
+      <c r="M173" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="174" spans="13:13">
+      <c r="M174" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="175" spans="13:13">
+      <c r="M175" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="176" spans="13:13">
+      <c r="M176" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="177" spans="13:13">
+      <c r="M177" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="178" spans="13:13">
+      <c r="M178" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="179" spans="13:13">
+      <c r="M179" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="180" spans="13:13">
+      <c r="M180" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="181" spans="13:13">
+      <c r="M181" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="182" spans="13:13">
+      <c r="M182" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="183" spans="13:13">
+      <c r="M183" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="184" spans="13:13">
+      <c r="M184" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="185" spans="13:13">
+      <c r="M185" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="186" spans="13:13">
+      <c r="M186" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="187" spans="13:13">
+      <c r="M187" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="188" spans="13:13">
+      <c r="M188" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="189" spans="13:13">
+      <c r="M189" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="190" spans="13:13">
+      <c r="M190" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="191" spans="13:13">
+      <c r="M191" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="192" spans="13:13">
+      <c r="M192" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="193" spans="13:13">
+      <c r="M193" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="194" spans="13:13">
+      <c r="M194" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="195" spans="13:13">
+      <c r="M195" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="196" spans="13:13">
+      <c r="M196" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="197" spans="13:13">
+      <c r="M197" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="198" spans="13:13">
+      <c r="M198" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="199" spans="13:13">
+      <c r="M199" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="200" spans="13:13">
+      <c r="M200" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="201" spans="13:13">
+      <c r="M201" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="202" spans="13:13">
+      <c r="M202" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="203" spans="13:13">
+      <c r="M203" t="e">
+        <f>#REF!/($D$5-$D$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="204" spans="13:13">
+      <c r="M204">
+        <f>J104/($D$5-$D$4)</f>
+        <v>2.6819022729271499E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/modules/combined/doc/richards/tests/data/sinks.xlsx
+++ b/modules/combined/doc/richards/tests/data/sinks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="15300" windowHeight="11112" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="15300" windowHeight="11112" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="piecewise_linear_chart" sheetId="4" r:id="rId1"/>
@@ -6261,7 +6261,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -13751,8 +13751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:R204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M5" activeCellId="1" sqref="I5:I41 M5:M41"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
